--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,197 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>21.06542562535798</v>
+      </c>
+      <c r="C2">
+        <v>14.69850012074415</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>11.37975294468312</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2">
+        <v>2.05735880391106</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18.18431544472706</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>34.39923977504962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>19.54214102636326</v>
+      </c>
+      <c r="C3">
+        <v>13.67333534838428</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10.72497839820268</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.06998229154019</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.89932436541144</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>32.57955889389579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>18.56187133331155</v>
+      </c>
+      <c r="C4">
+        <v>13.01495697754406</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10.3172151840366</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.077850662395033</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.07420335698454</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>31.45406996617761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>18.15083244477371</v>
+      </c>
+      <c r="C5">
+        <v>12.73920544398778</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10.14968069840444</v>
+      </c>
       <c r="F5">
         <v>26.21694803853472</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>2.081091064228544</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.72864694333322</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.99353387696156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>18.08187358019607</v>
+      </c>
+      <c r="C6">
+        <v>12.69296173396791</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10.12178215250096</v>
+      </c>
       <c r="F6">
         <v>26.12018204701068</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>2.081631303935101</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.67069887974209</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.91695518453064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>18.55637510333265</v>
+      </c>
+      <c r="C7">
+        <v>13.01126851777775</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10.31496116265778</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617551</v>
+      </c>
+      <c r="G7">
+        <v>2.077894220473675</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.06958105399157</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>31.44786636161659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>20.54936404832454</v>
+      </c>
+      <c r="C8">
+        <v>14.3509088173824</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>11.15520476608093</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>2.061689807361975</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.74860507203416</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>33.77358194737627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>24.11403774575865</v>
+      </c>
+      <c r="C9">
+        <v>16.75796764912114</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>12.75685476345262</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994148619</v>
+      </c>
+      <c r="G9">
+        <v>2.030618318615094</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>20.76613062964388</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.26827785401111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>26.54443065329164</v>
+      </c>
+      <c r="C10">
+        <v>18.40775491140177</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>13.9131230123422</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847222</v>
+      </c>
+      <c r="G10">
+        <v>2.007853287377733</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>22.83415745780673</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>41.53956849839548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>27.61464566956603</v>
+      </c>
+      <c r="C11">
+        <v>19.13669184813802</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>14.50663738544396</v>
+      </c>
       <c r="F11">
         <v>39.14805722232859</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="G11">
+        <v>1.997411073343453</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>23.74763813938145</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>43.02633835288134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>28.01536703385192</v>
+      </c>
+      <c r="C12">
+        <v>19.41004186843795</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>14.72967897513326</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363781</v>
+      </c>
+      <c r="G12">
+        <v>1.993434392308578</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.09013052056942</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>43.58983206686482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>27.92925708348849</v>
+      </c>
+      <c r="C13">
+        <v>19.3512829058625</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>14.68171263092789</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>1.994292019110698</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.01651201080042</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>43.46843873562655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>27.64770093397456</v>
+      </c>
+      <c r="C14">
+        <v>19.15923162428436</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>14.52501913830849</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503946</v>
+      </c>
+      <c r="G14">
+        <v>1.997084423082644</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.77588062638892</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>43.07268287608711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>27.4746652853377</v>
+      </c>
+      <c r="C15">
+        <v>19.04125897171187</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>14.42882890581651</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309154517</v>
+      </c>
+      <c r="G15">
+        <v>1.998791600223748</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.62805746892294</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>42.83035831948291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>26.47382195728984</v>
+      </c>
+      <c r="C16">
+        <v>18.35971741227629</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>13.87461422832065</v>
+      </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>2.008533156223135</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.77395128288685</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>41.44243058605024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>25.85113361850843</v>
+      </c>
+      <c r="C17">
+        <v>17.93636704332375</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>13.5757048344238</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268393</v>
+      </c>
+      <c r="G17">
+        <v>2.014480580827905</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.24332862741604</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>40.59105178345235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>25.48961225861522</v>
+      </c>
+      <c r="C18">
+        <v>17.69080900386898</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>13.40343188511481</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239623</v>
+      </c>
+      <c r="G18">
+        <v>2.017893953828772</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.93552692426804</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>40.10118046456558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>25.36661383872884</v>
+      </c>
+      <c r="C19">
+        <v>17.60730220576543</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>13.34503727426389</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494150063</v>
+      </c>
+      <c r="G19">
+        <v>2.01904866534559</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.83084985094666</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>39.93527014651064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>25.91776472811316</v>
+      </c>
+      <c r="C20">
+        <v>17.98164362084727</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>13.60755877244778</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.891556977314</v>
+      </c>
+      <c r="G20">
+        <v>2.013848303264563</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.30008021799575</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>40.68169697300629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>27.73051940115999</v>
+      </c>
+      <c r="C21">
+        <v>19.21571084723782</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>14.57108704628187</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>39.30090300329766</v>
+      </c>
+      <c r="G21">
+        <v>1.996264924358701</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>23.84664838560289</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>43.18890622864826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>28.88908405738564</v>
+      </c>
+      <c r="C22">
+        <v>20.00685994803755</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>15.21753983978312</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026791</v>
+      </c>
+      <c r="G22">
+        <v>1.984636317888057</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>24.83776676991805</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>44.83083068353687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>28.27292743786414</v>
+      </c>
+      <c r="C23">
+        <v>19.58585822739091</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>14.87327240333286</v>
+      </c>
       <c r="F23">
         <v>40.01414225038425</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>1.99085905548613</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.3103979516841</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>43.9539158109086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>25.88765183677935</v>
+      </c>
+      <c r="C24">
+        <v>17.96118086421477</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>13.59315895092175</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575439</v>
+      </c>
+      <c r="G24">
+        <v>2.014134173538401</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.27443139369175</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>40.64071758426817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>23.18448333572815</v>
+      </c>
+      <c r="C25">
+        <v>16.12888586994823</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>12.32837329025476</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>2.038983150129047</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.97747745845156</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>37.05900127452561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.06542562535798</v>
+        <v>13.19739734291622</v>
       </c>
       <c r="C2">
-        <v>14.69850012074415</v>
+        <v>8.78438444338266</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.37975294468312</v>
+        <v>10.56364796704511</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>26.43241791126881</v>
       </c>
       <c r="G2">
-        <v>2.05735880391106</v>
+        <v>23.10947029155506</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.549190327673321</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.008523735706543</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.81177016565672</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.71990577554514</v>
       </c>
       <c r="M2">
-        <v>18.18431544472706</v>
+        <v>10.55410299614443</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>34.39923977504962</v>
+        <v>15.49188750702265</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54214102636326</v>
+        <v>12.32211704681532</v>
       </c>
       <c r="C3">
-        <v>13.67333534838428</v>
+        <v>8.891482670506624</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.72497839820268</v>
+        <v>10.46847784312038</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>26.14816708326957</v>
       </c>
       <c r="G3">
-        <v>2.06998229154019</v>
+        <v>23.24679521895757</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.661134422394444</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.96130212295634</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.29971894300408</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.551555647283963</v>
       </c>
       <c r="M3">
-        <v>16.89932436541144</v>
+        <v>10.15939814456921</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>32.57955889389579</v>
+        <v>15.65991114707214</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56187133331155</v>
+        <v>11.7524656065162</v>
       </c>
       <c r="C4">
-        <v>13.01495697754406</v>
+        <v>8.95942675791316</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.3172151840366</v>
+        <v>10.41438957595036</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>25.99162056572835</v>
       </c>
       <c r="G4">
-        <v>2.077850662395033</v>
+        <v>23.35491330665061</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.734368019961039</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.932118707778893</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.971354643505055</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.448923149813531</v>
       </c>
       <c r="M4">
-        <v>16.07420335698454</v>
+        <v>9.912058522994474</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.45406996617761</v>
+        <v>15.77349283318204</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15083244477371</v>
+        <v>11.51218817909646</v>
       </c>
       <c r="C5">
-        <v>12.73920544398778</v>
+        <v>8.987669921682132</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.14968069840444</v>
+        <v>10.39344346364578</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>25.93230881335636</v>
       </c>
       <c r="G5">
-        <v>2.081091064228544</v>
+        <v>23.4046886181096</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.765318196413135</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.920181767348677</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.834126120237862</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.407334248441886</v>
       </c>
       <c r="M5">
-        <v>15.72864694333322</v>
+        <v>9.810155087743494</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.99353387696156</v>
+        <v>15.82230550976183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.08187358019607</v>
+        <v>11.47179763756921</v>
       </c>
       <c r="C6">
-        <v>12.69296173396791</v>
+        <v>8.992393392351071</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.12178215250096</v>
+        <v>10.39003155494258</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>25.92272943572431</v>
       </c>
       <c r="G6">
-        <v>2.081631303935101</v>
+        <v>23.41329127502276</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.770523623202667</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.918197052597226</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.811136112474884</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.400444087461944</v>
       </c>
       <c r="M6">
-        <v>15.67069887974209</v>
+        <v>9.793171526179991</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.91695518453064</v>
+        <v>15.83056088159574</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55637510333265</v>
+        <v>11.74925814619589</v>
       </c>
       <c r="C7">
-        <v>13.01126851777775</v>
+        <v>8.959805398586676</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.31496116265778</v>
+        <v>10.41410265309653</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>25.99080258064</v>
       </c>
       <c r="G7">
-        <v>2.077894220473675</v>
+        <v>23.35556179959602</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.734780974063804</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.931957897960761</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.969517631894893</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.448361250748023</v>
       </c>
       <c r="M7">
-        <v>16.06958105399157</v>
+        <v>9.910688512896634</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.44786636161659</v>
+        <v>15.77414102240057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54936404832454</v>
+        <v>12.90226668963647</v>
       </c>
       <c r="C8">
-        <v>14.3509088173824</v>
+        <v>8.820861919972852</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.15520476608093</v>
+        <v>10.52993320780232</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>26.33065517332666</v>
       </c>
       <c r="G8">
-        <v>2.061689807361975</v>
+        <v>23.15171734009647</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.586839407168471</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.992282836402278</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.63816371555578</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.661735650147645</v>
       </c>
       <c r="M8">
-        <v>17.74860507203416</v>
+        <v>10.41912610852643</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.77358194737627</v>
+        <v>15.54760372307547</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.11403774575865</v>
+        <v>14.90934414623642</v>
       </c>
       <c r="C9">
-        <v>16.75796764912114</v>
+        <v>8.565460214773154</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.75685476345262</v>
+        <v>10.79137073994675</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>27.14100395590047</v>
       </c>
       <c r="G9">
-        <v>2.030618318615094</v>
+        <v>22.95301844241125</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.333635291676694</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.108946617098169</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.83532194998095</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.083872233006957</v>
       </c>
       <c r="M9">
-        <v>20.76613062964388</v>
+        <v>11.37101495702501</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>38.26827785401111</v>
+        <v>15.19039486796629</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.54443065329164</v>
+        <v>16.2316143691758</v>
       </c>
       <c r="C10">
-        <v>18.40775491140177</v>
+        <v>8.387828922137706</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.9131230123422</v>
+        <v>11.0039844852242</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>27.82497636538138</v>
       </c>
       <c r="G10">
-        <v>2.007853287377733</v>
+        <v>22.94641784151152</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.171948238905708</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.193493717226679</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.64200115047611</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.39357246161388</v>
       </c>
       <c r="M10">
-        <v>22.83415745780673</v>
+        <v>12.03642636593391</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>41.53956849839548</v>
+        <v>14.98750531608815</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.61464566956603</v>
+        <v>16.8006345049777</v>
       </c>
       <c r="C11">
-        <v>19.13669184813802</v>
+        <v>8.309107251358565</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.50663738544396</v>
+        <v>11.10505774588018</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>28.15536218365872</v>
       </c>
       <c r="G11">
-        <v>1.997411073343453</v>
+        <v>22.97728008950172</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.104137274096026</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.231668423039497</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.99269862632559</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.533843524902782</v>
       </c>
       <c r="M11">
-        <v>23.74763813938145</v>
+        <v>12.33069507877206</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>43.02633835288134</v>
+        <v>14.90967989886069</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.01536703385192</v>
+        <v>17.01148245974364</v>
       </c>
       <c r="C12">
-        <v>19.41004186843795</v>
+        <v>8.279590036601233</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.72967897513326</v>
+        <v>11.14394654201193</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>28.28322425901708</v>
       </c>
       <c r="G12">
-        <v>1.993434392308578</v>
+        <v>22.99412748408723</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.07932758345145</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.246080088406765</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.1231342574171</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.58683261840757</v>
       </c>
       <c r="M12">
-        <v>24.09013052056942</v>
+        <v>12.44084224659609</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>43.58983206686482</v>
+        <v>14.88242806176547</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.92925708348849</v>
+        <v>16.96627768062335</v>
       </c>
       <c r="C13">
-        <v>19.3512829058625</v>
+        <v>8.285934174221042</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.68171263092789</v>
+        <v>11.13554400310564</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>28.25556476746737</v>
       </c>
       <c r="G13">
-        <v>1.994292019110698</v>
+        <v>22.99026501884231</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.084631420311482</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.242978295624491</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.09514817365028</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.575426791240412</v>
       </c>
       <c r="M13">
-        <v>24.01651201080042</v>
+        <v>12.41717832759605</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>43.46843873562655</v>
+        <v>14.88819625911067</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.64770093397456</v>
+        <v>16.81807358103002</v>
       </c>
       <c r="C14">
-        <v>19.15923162428436</v>
+        <v>8.306673019293699</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.52501913830849</v>
+        <v>11.1082449027968</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>28.16582642197763</v>
       </c>
       <c r="G14">
-        <v>1.997084423082644</v>
+        <v>22.97856106707002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.102078490846992</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.232854984053515</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.00347718452171</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.538205764260193</v>
       </c>
       <c r="M14">
-        <v>23.77588062638892</v>
+        <v>12.3397831064596</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>43.07268287608711</v>
+        <v>14.90739258293221</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.4746652853377</v>
+        <v>16.72669296514661</v>
       </c>
       <c r="C15">
-        <v>19.04125897171187</v>
+        <v>8.319414114784882</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.42882890581651</v>
+        <v>11.09160309244611</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>28.11121696374405</v>
       </c>
       <c r="G15">
-        <v>1.998791600223748</v>
+        <v>22.97207263576196</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.11287982722668</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.22664830793892</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.94701729273371</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.515388934055839</v>
       </c>
       <c r="M15">
-        <v>23.62805746892294</v>
+        <v>12.29220683629124</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>42.83035831948291</v>
+        <v>14.91944409573934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47382195728984</v>
+        <v>16.19377757189104</v>
       </c>
       <c r="C16">
-        <v>18.35971741227629</v>
+        <v>8.393014931286165</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.87461422832065</v>
+        <v>10.99746575382731</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>27.80377094664283</v>
       </c>
       <c r="G16">
-        <v>2.008533156223135</v>
+        <v>22.94510736316168</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.176498982458483</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.190992883011954</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.61875244494063</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.384389555166281</v>
       </c>
       <c r="M16">
-        <v>22.77395128288685</v>
+        <v>12.01701899794986</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>41.44243058605024</v>
+        <v>14.99289419678359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85113361850843</v>
+        <v>15.85856139454583</v>
       </c>
       <c r="C17">
-        <v>17.93636704332375</v>
+        <v>8.438695633320409</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.5757048344238</v>
+        <v>10.94082276008746</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>27.62008265247977</v>
       </c>
       <c r="G17">
-        <v>2.014480580827905</v>
+        <v>22.93744735046334</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.217027299830201</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.169043886714855</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.41318472258123</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.303838889275937</v>
       </c>
       <c r="M17">
-        <v>22.24332862741604</v>
+        <v>11.84598468276619</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>40.59105178345235</v>
+        <v>15.04175540341459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.48961225861522</v>
+        <v>15.66269335480014</v>
       </c>
       <c r="C18">
-        <v>17.69080900386898</v>
+        <v>8.465166498072417</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.40343188511481</v>
+        <v>10.90865379844161</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>27.51624261735789</v>
       </c>
       <c r="G18">
-        <v>2.017893953828772</v>
+        <v>22.93621192712213</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.240875691655736</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.156392647040835</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.293417690263</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.257452777722754</v>
       </c>
       <c r="M18">
-        <v>21.93552692426804</v>
+        <v>11.74682038804282</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>40.10118046456558</v>
+        <v>15.07121231109929</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.36661383872884</v>
+        <v>15.59584882768944</v>
       </c>
       <c r="C19">
-        <v>17.60730220576543</v>
+        <v>8.47416303368829</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.34503727426389</v>
+        <v>10.89783280082572</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>27.48139584547367</v>
       </c>
       <c r="G19">
-        <v>2.01904866534559</v>
+        <v>22.93632920037273</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.249041422340049</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.152104655552846</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.2526048336339</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.241738989001496</v>
       </c>
       <c r="M19">
-        <v>21.83084985094666</v>
+        <v>11.71311184265374</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>39.93527014651064</v>
+        <v>15.08141425178706</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.91776472811316</v>
+        <v>15.89456217045354</v>
       </c>
       <c r="C20">
-        <v>17.98164362084727</v>
+        <v>8.433812552023324</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.60755877244778</v>
+        <v>10.94681009062358</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>27.63944907728229</v>
       </c>
       <c r="G20">
-        <v>2.013848303264563</v>
+        <v>22.93793252056082</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.212657053424559</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.171383187022079</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.43522632118171</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.312419691982708</v>
       </c>
       <c r="M20">
-        <v>22.30008021799575</v>
+        <v>11.8642738992282</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>40.68169697300629</v>
+        <v>15.03641301417201</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.73051940115999</v>
+        <v>16.86172995296532</v>
       </c>
       <c r="C21">
-        <v>19.21571084723782</v>
+        <v>8.300573620248844</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.57108704628187</v>
+        <v>11.11624672725301</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>28.19211020379137</v>
       </c>
       <c r="G21">
-        <v>1.996264924358701</v>
+        <v>22.98185646019884</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.096929918364461</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.23582967173111</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.03046755865672</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.54914227481801</v>
       </c>
       <c r="M21">
-        <v>23.84664838560289</v>
+        <v>12.36255138998436</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>43.18890622864826</v>
+        <v>14.90169279489345</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.88908405738564</v>
+        <v>17.46687801153131</v>
       </c>
       <c r="C22">
-        <v>20.00685994803755</v>
+        <v>8.215198771761806</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.21753983978312</v>
+        <v>11.23055965001503</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>28.56933738148303</v>
       </c>
       <c r="G22">
-        <v>1.984636317888057</v>
+        <v>23.04077268185117</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.026382852895926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.277689787832265</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.40569518418989</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.703088796412176</v>
       </c>
       <c r="M22">
-        <v>24.83776676991805</v>
+        <v>12.68068265395536</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>44.83083068353687</v>
+        <v>14.82664886856323</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.27292743786414</v>
+        <v>17.14635034663933</v>
       </c>
       <c r="C23">
-        <v>19.58585822739091</v>
+        <v>8.260611205963409</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.87327240333286</v>
+        <v>11.16922543996302</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>28.36654355450801</v>
       </c>
       <c r="G23">
-        <v>1.99085905548613</v>
+        <v>23.00646951893804</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.063554314166923</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.255372989730487</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.20669831812817</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.621007121492884</v>
       </c>
       <c r="M23">
-        <v>24.3103979516841</v>
+        <v>12.51159961186158</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>43.9539158109086</v>
+        <v>14.86546369553748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.88765183677935</v>
+        <v>15.87829602765761</v>
       </c>
       <c r="C24">
-        <v>17.96118086421477</v>
+        <v>8.436019543391208</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.59315895092175</v>
+        <v>10.94410198463047</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>27.63068801854104</v>
       </c>
       <c r="G24">
-        <v>2.014134173538401</v>
+        <v>22.93770332836294</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.214631137769794</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.170325690250323</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.42526624428231</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.308540546136566</v>
       </c>
       <c r="M24">
-        <v>22.27443139369175</v>
+        <v>11.85600793767548</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>40.64071758426817</v>
+        <v>15.03882406408829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.18448333572815</v>
+        <v>14.39331273716106</v>
       </c>
       <c r="C25">
-        <v>16.12888586994823</v>
+        <v>8.632766146534895</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.32837329025476</v>
+        <v>10.71700527949889</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>26.90624510482667</v>
       </c>
       <c r="G25">
-        <v>2.038983150129047</v>
+        <v>22.98351653604782</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.398003129622008</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.077578530978398</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.52406426663923</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.969563828194337</v>
       </c>
       <c r="M25">
-        <v>19.97747745845156</v>
+        <v>11.11905517680136</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>37.05900127452561</v>
+        <v>15.27706800535816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19739734291622</v>
+        <v>11.95419801644062</v>
       </c>
       <c r="C2">
-        <v>8.78438444338266</v>
+        <v>13.16508314515939</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.56364796704511</v>
+        <v>17.10419056647336</v>
       </c>
       <c r="F2">
-        <v>26.43241791126881</v>
+        <v>39.22751005504706</v>
       </c>
       <c r="G2">
-        <v>23.10947029155506</v>
+        <v>34.25011559472365</v>
       </c>
       <c r="H2">
-        <v>9.549190327673321</v>
+        <v>15.83807710009416</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.008523735706543</v>
+        <v>8.407879324138483</v>
       </c>
       <c r="K2">
-        <v>10.81177016565672</v>
+        <v>7.741438133827988</v>
       </c>
       <c r="L2">
-        <v>7.71990577554514</v>
+        <v>12.25328226195592</v>
       </c>
       <c r="M2">
-        <v>10.55410299614443</v>
+        <v>15.31431653136852</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.49188750702265</v>
+        <v>24.80297989727734</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32211704681532</v>
+        <v>11.71148820215922</v>
       </c>
       <c r="C3">
-        <v>8.891482670506624</v>
+        <v>13.20282452466995</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.46847784312038</v>
+        <v>17.12567554219492</v>
       </c>
       <c r="F3">
-        <v>26.14816708326957</v>
+        <v>39.29857082279469</v>
       </c>
       <c r="G3">
-        <v>23.24679521895757</v>
+        <v>34.40081413437901</v>
       </c>
       <c r="H3">
-        <v>9.661134422394444</v>
+        <v>15.89102589592942</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.96130212295634</v>
+        <v>8.394822284307496</v>
       </c>
       <c r="K3">
-        <v>10.29971894300408</v>
+        <v>7.497271212481664</v>
       </c>
       <c r="L3">
-        <v>7.551555647283963</v>
+        <v>12.24678709144198</v>
       </c>
       <c r="M3">
-        <v>10.15939814456921</v>
+        <v>15.26491782407435</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.65991114707214</v>
+        <v>24.89979808133203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.7524656065162</v>
+        <v>11.56142743859852</v>
       </c>
       <c r="C4">
-        <v>8.95942675791316</v>
+        <v>13.22722331977866</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.41438957595036</v>
+        <v>17.14118354540987</v>
       </c>
       <c r="F4">
-        <v>25.99162056572835</v>
+        <v>39.35035707735191</v>
       </c>
       <c r="G4">
-        <v>23.35491330665061</v>
+        <v>34.50185722361358</v>
       </c>
       <c r="H4">
-        <v>9.734368019961039</v>
+        <v>15.92564285619333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.932118707778893</v>
+        <v>8.386726299365327</v>
       </c>
       <c r="K4">
-        <v>9.971354643505055</v>
+        <v>7.341927430981277</v>
       </c>
       <c r="L4">
-        <v>7.448923149813531</v>
+        <v>12.24423233585893</v>
       </c>
       <c r="M4">
-        <v>9.912058522994474</v>
+        <v>15.23629770769538</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.77349283318204</v>
+        <v>24.96355512581524</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51218817909646</v>
+        <v>11.50009715062767</v>
       </c>
       <c r="C5">
-        <v>8.987669921682132</v>
+        <v>13.2374750353853</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.39344346364578</v>
+        <v>17.14808623472776</v>
       </c>
       <c r="F5">
-        <v>25.93230881335636</v>
+        <v>39.3735090615497</v>
       </c>
       <c r="G5">
-        <v>23.4046886181096</v>
+        <v>34.54516858944622</v>
       </c>
       <c r="H5">
-        <v>9.765318196413135</v>
+        <v>15.94027979561418</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.920181767348677</v>
+        <v>8.383407687479412</v>
       </c>
       <c r="K5">
-        <v>9.834126120237862</v>
+        <v>7.2773199003947</v>
       </c>
       <c r="L5">
-        <v>7.407334248441886</v>
+        <v>12.24355339227092</v>
       </c>
       <c r="M5">
-        <v>9.810155087743494</v>
+        <v>15.22507254280053</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.82230550976183</v>
+        <v>24.99062042996326</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.47179763756921</v>
+        <v>11.48990489148325</v>
       </c>
       <c r="C6">
-        <v>8.992393392351071</v>
+        <v>13.23919601373018</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.39003155494258</v>
+        <v>17.14926765309481</v>
       </c>
       <c r="F6">
-        <v>25.92272943572431</v>
+        <v>39.37747710058054</v>
       </c>
       <c r="G6">
-        <v>23.41329127502276</v>
+        <v>34.55248923001365</v>
       </c>
       <c r="H6">
-        <v>9.770523623202667</v>
+        <v>15.94274229257914</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.918197052597226</v>
+        <v>8.382855472721843</v>
       </c>
       <c r="K6">
-        <v>9.811136112474884</v>
+        <v>7.266515007897604</v>
       </c>
       <c r="L6">
-        <v>7.400444087461944</v>
+        <v>12.24346257448515</v>
       </c>
       <c r="M6">
-        <v>9.793171526179991</v>
+        <v>15.22323526588077</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.83056088159574</v>
+        <v>24.99518005992126</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74925814619589</v>
+        <v>11.56060093390504</v>
       </c>
       <c r="C7">
-        <v>8.959805398586676</v>
+        <v>13.22736032568601</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.41410265309653</v>
+        <v>17.14127427594385</v>
       </c>
       <c r="F7">
-        <v>25.99080258064</v>
+        <v>39.35066102099126</v>
       </c>
       <c r="G7">
-        <v>23.35556179959602</v>
+        <v>34.50243269642363</v>
       </c>
       <c r="H7">
-        <v>9.734780974063804</v>
+        <v>15.92583810728534</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.931957897960761</v>
+        <v>8.386681621549757</v>
       </c>
       <c r="K7">
-        <v>9.969517631894893</v>
+        <v>7.341061305789437</v>
       </c>
       <c r="L7">
-        <v>7.448361250748023</v>
+        <v>12.24422171091004</v>
       </c>
       <c r="M7">
-        <v>9.910688512896634</v>
+        <v>15.23614453900811</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.77414102240057</v>
+        <v>24.96391574981761</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90226668963647</v>
+        <v>11.87077463220537</v>
       </c>
       <c r="C8">
-        <v>8.820861919972852</v>
+        <v>13.17784255388623</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.52993320780232</v>
+        <v>17.11111827623913</v>
       </c>
       <c r="F8">
-        <v>26.33065517332666</v>
+        <v>39.25031831032486</v>
       </c>
       <c r="G8">
-        <v>23.15171734009647</v>
+        <v>34.30030628388381</v>
       </c>
       <c r="H8">
-        <v>9.586839407168471</v>
+        <v>15.85589708453018</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.992282836402278</v>
+        <v>8.403393879651588</v>
       </c>
       <c r="K8">
-        <v>10.63816371555578</v>
+        <v>7.658409569086755</v>
       </c>
       <c r="L8">
-        <v>7.661735650147645</v>
+        <v>12.25074631294165</v>
       </c>
       <c r="M8">
-        <v>10.41912610852643</v>
+        <v>15.29693339619251</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.54760372307547</v>
+        <v>24.83546816659543</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.90934414623642</v>
+        <v>12.46737197212512</v>
       </c>
       <c r="C9">
-        <v>8.565460214773154</v>
+        <v>13.09042214627022</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.79137073994675</v>
+        <v>17.07032994211212</v>
       </c>
       <c r="F9">
-        <v>27.14100395590047</v>
+        <v>39.11831750096734</v>
       </c>
       <c r="G9">
-        <v>22.95301844241125</v>
+        <v>33.97172311161781</v>
       </c>
       <c r="H9">
-        <v>9.333635291676694</v>
+        <v>15.73542603403005</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.108946617098169</v>
+        <v>8.43552328387384</v>
       </c>
       <c r="K9">
-        <v>11.83532194998095</v>
+        <v>8.23533307753749</v>
       </c>
       <c r="L9">
-        <v>8.083872233006957</v>
+        <v>12.27483414319606</v>
       </c>
       <c r="M9">
-        <v>11.37101495702501</v>
+        <v>15.42936953201598</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.19039486796629</v>
+        <v>24.61778580216651</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.2316143691758</v>
+        <v>12.89421546117151</v>
       </c>
       <c r="C10">
-        <v>8.387828922137706</v>
+        <v>13.03204243048264</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.0039844852242</v>
+        <v>17.05150449763593</v>
       </c>
       <c r="F10">
-        <v>27.82497636538138</v>
+        <v>39.06088904684616</v>
       </c>
       <c r="G10">
-        <v>22.94641784151152</v>
+        <v>33.77195333416126</v>
       </c>
       <c r="H10">
-        <v>9.171948238905708</v>
+        <v>15.6570467077664</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.193493717226679</v>
+        <v>8.45871480254366</v>
       </c>
       <c r="K10">
-        <v>12.64200115047611</v>
+        <v>8.628758187306559</v>
       </c>
       <c r="L10">
-        <v>8.39357246161388</v>
+        <v>12.29930376245124</v>
       </c>
       <c r="M10">
-        <v>12.03642636593391</v>
+        <v>15.53425228306412</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.98750531608815</v>
+        <v>24.47870909332185</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.8006345049777</v>
+        <v>13.08505278738018</v>
       </c>
       <c r="C11">
-        <v>8.309107251358565</v>
+        <v>13.00674207637681</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.10505774588018</v>
+        <v>17.04534870292972</v>
       </c>
       <c r="F11">
-        <v>28.15536218365872</v>
+        <v>39.0433551550165</v>
       </c>
       <c r="G11">
-        <v>22.97728008950172</v>
+        <v>33.69018069537982</v>
       </c>
       <c r="H11">
-        <v>9.104137274096026</v>
+        <v>15.62358151694376</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.231668423039497</v>
+        <v>8.469170651977178</v>
       </c>
       <c r="K11">
-        <v>12.99269862632559</v>
+        <v>8.800645067880811</v>
       </c>
       <c r="L11">
-        <v>8.533843524902782</v>
+        <v>12.31187966227449</v>
       </c>
       <c r="M11">
-        <v>12.33069507877206</v>
+        <v>15.58350293865277</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.90967989886069</v>
+        <v>24.41996914041324</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.01148245974364</v>
+        <v>13.1567725590379</v>
       </c>
       <c r="C12">
-        <v>8.279590036601233</v>
+        <v>12.99734134910327</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.14394654201193</v>
+        <v>17.04336283125207</v>
       </c>
       <c r="F12">
-        <v>28.28322425901708</v>
+        <v>39.03795006233908</v>
       </c>
       <c r="G12">
-        <v>22.99412748408723</v>
+        <v>33.66052997759339</v>
       </c>
       <c r="H12">
-        <v>9.07932758345145</v>
+        <v>15.61122346352299</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.246080088406765</v>
+        <v>8.4731160337943</v>
       </c>
       <c r="K12">
-        <v>13.1231342574171</v>
+        <v>8.86468126281361</v>
       </c>
       <c r="L12">
-        <v>8.58683261840757</v>
+        <v>12.31684705762377</v>
       </c>
       <c r="M12">
-        <v>12.44084224659609</v>
+        <v>15.60236440698529</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.88242806176547</v>
+        <v>24.39837705092885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96627768062335</v>
+        <v>13.14135172764315</v>
       </c>
       <c r="C13">
-        <v>8.285934174221042</v>
+        <v>12.99935797196207</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.13554400310564</v>
+        <v>17.04377518977858</v>
       </c>
       <c r="F13">
-        <v>28.25556476746737</v>
+        <v>39.03905925378141</v>
       </c>
       <c r="G13">
-        <v>22.99026501884231</v>
+        <v>33.66685722424824</v>
       </c>
       <c r="H13">
-        <v>9.084631420311482</v>
+        <v>15.61387101111098</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.242978295624491</v>
+        <v>8.472266956730195</v>
       </c>
       <c r="K13">
-        <v>13.09514817365028</v>
+        <v>8.850937295041106</v>
       </c>
       <c r="L13">
-        <v>8.575426791240412</v>
+        <v>12.31576815693081</v>
       </c>
       <c r="M13">
-        <v>12.41717832759605</v>
+        <v>15.59829301590527</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.88819625911067</v>
+        <v>24.40299831161039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81807358103002</v>
+        <v>13.09096452806346</v>
       </c>
       <c r="C14">
-        <v>8.306673019293699</v>
+        <v>13.00596507043789</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.1082449027968</v>
+        <v>17.04517841236034</v>
       </c>
       <c r="F14">
-        <v>28.16582642197763</v>
+        <v>39.04288573753414</v>
       </c>
       <c r="G14">
-        <v>22.97856106707002</v>
+        <v>33.68771493004773</v>
       </c>
       <c r="H14">
-        <v>9.102078490846992</v>
+        <v>15.62255851202416</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.232854984053515</v>
+        <v>8.469495524763065</v>
       </c>
       <c r="K14">
-        <v>13.00347718452171</v>
+        <v>8.805934665825372</v>
       </c>
       <c r="L14">
-        <v>8.538205764260193</v>
+        <v>12.31228423593431</v>
       </c>
       <c r="M14">
-        <v>12.3397831064596</v>
+        <v>15.5850505061092</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90739258293221</v>
+        <v>24.41817968703778</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.72669296514661</v>
+        <v>13.06002788422574</v>
       </c>
       <c r="C15">
-        <v>8.319414114784882</v>
+        <v>13.01003552347099</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.09160309244611</v>
+        <v>17.04608284766494</v>
       </c>
       <c r="F15">
-        <v>28.11121696374405</v>
+        <v>39.04539032089191</v>
       </c>
       <c r="G15">
-        <v>22.97207263576196</v>
+        <v>33.70066227101123</v>
       </c>
       <c r="H15">
-        <v>9.11287982722668</v>
+        <v>15.62792080044572</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.22664830793892</v>
+        <v>8.467796101955114</v>
       </c>
       <c r="K15">
-        <v>12.94701729273371</v>
+        <v>8.778231076392697</v>
       </c>
       <c r="L15">
-        <v>8.515388934055839</v>
+        <v>12.31017687567316</v>
       </c>
       <c r="M15">
-        <v>12.29220683629124</v>
+        <v>15.57696630483244</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.91944409573934</v>
+        <v>24.42756357230936</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.19377757189104</v>
+        <v>12.88167088567293</v>
       </c>
       <c r="C16">
-        <v>8.393014931286165</v>
+        <v>13.03372109367157</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.99746575382731</v>
+        <v>17.05195515887619</v>
       </c>
       <c r="F16">
-        <v>27.80377094664283</v>
+        <v>39.06220774619179</v>
       </c>
       <c r="G16">
-        <v>22.94510736316168</v>
+        <v>33.77748104820921</v>
       </c>
       <c r="H16">
-        <v>9.176498982458483</v>
+        <v>15.65927776754606</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.190992883011954</v>
+        <v>8.458029553010739</v>
       </c>
       <c r="K16">
-        <v>12.61875244494063</v>
+        <v>8.617379339690237</v>
       </c>
       <c r="L16">
-        <v>8.384389555166281</v>
+        <v>12.2985107509142</v>
       </c>
       <c r="M16">
-        <v>12.01701899794986</v>
+        <v>15.53106375725596</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.99289419678359</v>
+        <v>24.48263902059697</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.85856139454583</v>
+        <v>12.77135158569526</v>
       </c>
       <c r="C17">
-        <v>8.438695633320409</v>
+        <v>13.04857278895894</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.94082276008746</v>
+        <v>17.0561736449398</v>
       </c>
       <c r="F17">
-        <v>27.62008265247977</v>
+        <v>39.07472463978224</v>
       </c>
       <c r="G17">
-        <v>22.93744735046334</v>
+        <v>33.82694264496436</v>
       </c>
       <c r="H17">
-        <v>9.217027299830201</v>
+        <v>15.67907484460671</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.169043886714855</v>
+        <v>8.452013645464532</v>
       </c>
       <c r="K17">
-        <v>12.41318472258123</v>
+        <v>8.516861358588908</v>
       </c>
       <c r="L17">
-        <v>8.303838889275937</v>
+        <v>12.29172217274064</v>
       </c>
       <c r="M17">
-        <v>11.84598468276619</v>
+        <v>15.50329117820639</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.04175540341459</v>
+        <v>24.51758579126104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.66269335480014</v>
+        <v>12.70758855850255</v>
       </c>
       <c r="C18">
-        <v>8.465166498072417</v>
+        <v>13.05723343938724</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.90865379844161</v>
+        <v>17.05882672875884</v>
       </c>
       <c r="F18">
-        <v>27.51624261735789</v>
+        <v>39.08273269411263</v>
       </c>
       <c r="G18">
-        <v>22.93621192712213</v>
+        <v>33.85624819035531</v>
       </c>
       <c r="H18">
-        <v>9.240875691655736</v>
+        <v>15.69066775336687</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.156392647040835</v>
+        <v>8.448544628290762</v>
       </c>
       <c r="K18">
-        <v>12.293417690263</v>
+        <v>8.458381083903809</v>
       </c>
       <c r="L18">
-        <v>8.257452777722754</v>
+        <v>12.28795369070168</v>
       </c>
       <c r="M18">
-        <v>11.74682038804282</v>
+        <v>15.48746259569888</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.07121231109929</v>
+        <v>24.53811229531043</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.59584882768944</v>
+        <v>12.68594829694164</v>
       </c>
       <c r="C19">
-        <v>8.47416303368829</v>
+        <v>13.06018613678222</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.89783280082572</v>
+        <v>17.05976398817312</v>
       </c>
       <c r="F19">
-        <v>27.48139584547367</v>
+        <v>39.08558298488696</v>
       </c>
       <c r="G19">
-        <v>22.93632920037273</v>
+        <v>33.86631748043204</v>
       </c>
       <c r="H19">
-        <v>9.249041422340049</v>
+        <v>15.69462833337768</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.152104655552846</v>
+        <v>8.447368577636219</v>
       </c>
       <c r="K19">
-        <v>12.2526048336339</v>
+        <v>8.438467589646596</v>
       </c>
       <c r="L19">
-        <v>8.241738989001496</v>
+        <v>12.28670120315388</v>
       </c>
       <c r="M19">
-        <v>11.71311184265374</v>
+        <v>15.48212859416351</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.08141425178706</v>
+        <v>24.54513537531389</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89456217045354</v>
+        <v>12.78312787180036</v>
       </c>
       <c r="C20">
-        <v>8.433812552023324</v>
+        <v>13.04697955765414</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.94681009062358</v>
+        <v>17.05570112245866</v>
       </c>
       <c r="F20">
-        <v>27.63944907728229</v>
+        <v>39.07330850416231</v>
       </c>
       <c r="G20">
-        <v>22.93793252056082</v>
+        <v>33.82158868274146</v>
       </c>
       <c r="H20">
-        <v>9.212657053424559</v>
+        <v>15.67694607895223</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.171383187022079</v>
+        <v>8.452654966117729</v>
       </c>
       <c r="K20">
-        <v>12.43522632118171</v>
+        <v>8.52763075983626</v>
       </c>
       <c r="L20">
-        <v>8.312419691982708</v>
+        <v>12.29243075772874</v>
       </c>
       <c r="M20">
-        <v>11.8642738992282</v>
+        <v>15.50623263250712</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.03641301417201</v>
+        <v>24.51382155003773</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86172995296532</v>
+        <v>13.10577980183668</v>
       </c>
       <c r="C21">
-        <v>8.300573620248844</v>
+        <v>13.00401952726929</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.11624672725301</v>
+        <v>17.04475689244029</v>
       </c>
       <c r="F21">
-        <v>28.19211020379137</v>
+        <v>39.04172830813239</v>
       </c>
       <c r="G21">
-        <v>22.98185646019884</v>
+        <v>33.68155278790904</v>
       </c>
       <c r="H21">
-        <v>9.096929918364461</v>
+        <v>15.61999825061599</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.23582967173111</v>
+        <v>8.470309945998828</v>
       </c>
       <c r="K21">
-        <v>13.03046755865672</v>
+        <v>8.819181881925235</v>
       </c>
       <c r="L21">
-        <v>8.54914227481801</v>
+        <v>12.31330200055811</v>
       </c>
       <c r="M21">
-        <v>12.36255138998436</v>
+        <v>15.58893449815189</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.90169279489345</v>
+        <v>24.41370286452751</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.46687801153131</v>
+        <v>13.31344011232527</v>
       </c>
       <c r="C22">
-        <v>8.215198771761806</v>
+        <v>12.97699130298645</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.23055965001503</v>
+        <v>17.03961569368548</v>
       </c>
       <c r="F22">
-        <v>28.56933738148303</v>
+        <v>39.02828432765065</v>
       </c>
       <c r="G22">
-        <v>23.04077268185117</v>
+        <v>33.59769748673489</v>
       </c>
       <c r="H22">
-        <v>9.026382852895926</v>
+        <v>15.58461244321329</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.277689787832265</v>
+        <v>8.48176653575872</v>
       </c>
       <c r="K22">
-        <v>13.40569518418989</v>
+        <v>9.003572680122042</v>
       </c>
       <c r="L22">
-        <v>8.703088796412176</v>
+        <v>12.32813720655416</v>
       </c>
       <c r="M22">
-        <v>12.68068265395536</v>
+        <v>15.64421183287367</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.82664886856323</v>
+        <v>24.35206695373118</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.14635034663933</v>
+        <v>13.20292259411929</v>
       </c>
       <c r="C23">
-        <v>8.260611205963409</v>
+        <v>12.99132107621767</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.16922543996302</v>
+        <v>17.04217597683464</v>
       </c>
       <c r="F23">
-        <v>28.36654355450801</v>
+        <v>39.03480163459518</v>
       </c>
       <c r="G23">
-        <v>23.00646951893804</v>
+        <v>33.64174932293255</v>
       </c>
       <c r="H23">
-        <v>9.063554314166923</v>
+        <v>15.60333094156377</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.255372989730487</v>
+        <v>8.475659601598609</v>
       </c>
       <c r="K23">
-        <v>13.20669831812817</v>
+        <v>8.905733471142685</v>
       </c>
       <c r="L23">
-        <v>8.621007121492884</v>
+        <v>12.32011094404485</v>
       </c>
       <c r="M23">
-        <v>12.51159961186158</v>
+        <v>15.61460038585163</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.86546369553748</v>
+        <v>24.38461555742899</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.87829602765761</v>
+        <v>12.777804863639</v>
       </c>
       <c r="C24">
-        <v>8.436019543391208</v>
+        <v>13.04769947678798</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.94410198463047</v>
+        <v>17.05591404016304</v>
       </c>
       <c r="F24">
-        <v>27.63068801854104</v>
+        <v>39.07394620995868</v>
       </c>
       <c r="G24">
-        <v>22.93770332836294</v>
+        <v>33.82400650132723</v>
       </c>
       <c r="H24">
-        <v>9.214631137769794</v>
+        <v>15.67790783566557</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.170325690250323</v>
+        <v>8.45236505738035</v>
       </c>
       <c r="K24">
-        <v>12.42526624428231</v>
+        <v>8.522764063632913</v>
       </c>
       <c r="L24">
-        <v>8.308540546136566</v>
+        <v>12.29210998774507</v>
       </c>
       <c r="M24">
-        <v>11.85600793767548</v>
+        <v>15.50490236965167</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.03882406408829</v>
+        <v>24.51552200809545</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39331273716106</v>
+        <v>12.30768932978073</v>
       </c>
       <c r="C25">
-        <v>8.632766146534895</v>
+        <v>13.11304072901784</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.71700527949889</v>
+        <v>17.07940416242964</v>
       </c>
       <c r="F25">
-        <v>26.90624510482667</v>
+        <v>39.14708402254485</v>
       </c>
       <c r="G25">
-        <v>22.98351653604782</v>
+        <v>34.0533236079984</v>
       </c>
       <c r="H25">
-        <v>9.398003129622008</v>
+        <v>15.76623476699296</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.077578530978398</v>
+        <v>8.42690251912715</v>
       </c>
       <c r="K25">
-        <v>11.52406426663923</v>
+        <v>8.084425830444244</v>
       </c>
       <c r="L25">
-        <v>7.969563828194337</v>
+        <v>12.26711980562984</v>
       </c>
       <c r="M25">
-        <v>11.11905517680136</v>
+        <v>15.39217426300592</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.27706800535816</v>
+        <v>24.67301271998919</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.95419801644062</v>
+        <v>13.19739734291622</v>
       </c>
       <c r="C2">
-        <v>13.16508314515939</v>
+        <v>8.784384443382525</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.10419056647336</v>
+        <v>10.56364796704516</v>
       </c>
       <c r="F2">
-        <v>39.22751005504706</v>
+        <v>26.43241791126891</v>
       </c>
       <c r="G2">
-        <v>34.25011559472365</v>
+        <v>23.10947029155519</v>
       </c>
       <c r="H2">
-        <v>15.83807710009416</v>
+        <v>9.54919032767344</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.407879324138483</v>
+        <v>6.008523735706508</v>
       </c>
       <c r="K2">
-        <v>7.741438133827988</v>
+        <v>10.81177016565669</v>
       </c>
       <c r="L2">
-        <v>12.25328226195592</v>
+        <v>7.719905775545137</v>
       </c>
       <c r="M2">
-        <v>15.31431653136852</v>
+        <v>10.55410299614446</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.80297989727734</v>
+        <v>15.49188750702275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.71148820215922</v>
+        <v>12.32211704681531</v>
       </c>
       <c r="C3">
-        <v>13.20282452466995</v>
+        <v>8.891482670506624</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.12567554219492</v>
+        <v>10.46847784312043</v>
       </c>
       <c r="F3">
-        <v>39.29857082279469</v>
+        <v>26.1481670832696</v>
       </c>
       <c r="G3">
-        <v>34.40081413437901</v>
+        <v>23.24679521895759</v>
       </c>
       <c r="H3">
-        <v>15.89102589592942</v>
+        <v>9.661134422394444</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.394822284307496</v>
+        <v>5.961302122956407</v>
       </c>
       <c r="K3">
-        <v>7.497271212481664</v>
+        <v>10.29971894300408</v>
       </c>
       <c r="L3">
-        <v>12.24678709144198</v>
+        <v>7.551555647284017</v>
       </c>
       <c r="M3">
-        <v>15.26491782407435</v>
+        <v>10.15939814456923</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.89979808133203</v>
+        <v>15.65991114707215</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.56142743859852</v>
+        <v>11.75246560651622</v>
       </c>
       <c r="C4">
-        <v>13.22722331977866</v>
+        <v>8.959426757913159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.14118354540987</v>
+        <v>10.41438957595031</v>
       </c>
       <c r="F4">
-        <v>39.35035707735191</v>
+        <v>25.99162056572841</v>
       </c>
       <c r="G4">
-        <v>34.50185722361358</v>
+        <v>23.35491330665086</v>
       </c>
       <c r="H4">
-        <v>15.92564285619333</v>
+        <v>9.734368019961108</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.386726299365327</v>
+        <v>5.932118707778826</v>
       </c>
       <c r="K4">
-        <v>7.341927430981277</v>
+        <v>9.971354643505068</v>
       </c>
       <c r="L4">
-        <v>12.24423233585893</v>
+        <v>7.448923149813445</v>
       </c>
       <c r="M4">
-        <v>15.23629770769538</v>
+        <v>9.912058522994426</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.96355512581524</v>
+        <v>15.77349283318208</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.50009715062767</v>
+        <v>11.51218817909642</v>
       </c>
       <c r="C5">
-        <v>13.2374750353853</v>
+        <v>8.987669921681995</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.14808623472776</v>
+        <v>10.39344346364575</v>
       </c>
       <c r="F5">
-        <v>39.3735090615497</v>
+        <v>25.9323088133565</v>
       </c>
       <c r="G5">
-        <v>34.54516858944622</v>
+        <v>23.40468861811001</v>
       </c>
       <c r="H5">
-        <v>15.94027979561418</v>
+        <v>9.76531819641313</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.383407687479412</v>
+        <v>5.920181767348614</v>
       </c>
       <c r="K5">
-        <v>7.2773199003947</v>
+        <v>9.834126120237769</v>
       </c>
       <c r="L5">
-        <v>12.24355339227092</v>
+        <v>7.407334248441861</v>
       </c>
       <c r="M5">
-        <v>15.22507254280053</v>
+        <v>9.810155087743524</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.99062042996326</v>
+        <v>15.82230550976199</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.48990489148325</v>
+        <v>11.4717976375692</v>
       </c>
       <c r="C6">
-        <v>13.23919601373018</v>
+        <v>8.992393392351071</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.14926765309481</v>
+        <v>10.39003155494274</v>
       </c>
       <c r="F6">
-        <v>39.37747710058054</v>
+        <v>25.92272943572439</v>
       </c>
       <c r="G6">
-        <v>34.55248923001365</v>
+        <v>23.41329127502285</v>
       </c>
       <c r="H6">
-        <v>15.94274229257914</v>
+        <v>9.77052362320266</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.382855472721843</v>
+        <v>5.918197052597295</v>
       </c>
       <c r="K6">
-        <v>7.266515007897604</v>
+        <v>9.811136112474903</v>
       </c>
       <c r="L6">
-        <v>12.24346257448515</v>
+        <v>7.40044408746202</v>
       </c>
       <c r="M6">
-        <v>15.22323526588077</v>
+        <v>9.793171526180025</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.99518005992126</v>
+        <v>15.83056088159576</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.56060093390504</v>
+        <v>11.74925814619582</v>
       </c>
       <c r="C7">
-        <v>13.22736032568601</v>
+        <v>8.959805398587077</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.14127427594385</v>
+        <v>10.41410265309659</v>
       </c>
       <c r="F7">
-        <v>39.35066102099126</v>
+        <v>25.99080258063999</v>
       </c>
       <c r="G7">
-        <v>34.50243269642363</v>
+        <v>23.35556179959599</v>
       </c>
       <c r="H7">
-        <v>15.92583810728534</v>
+        <v>9.734780974063813</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.386681621549757</v>
+        <v>5.931957897960789</v>
       </c>
       <c r="K7">
-        <v>7.341061305789437</v>
+        <v>9.969517631894933</v>
       </c>
       <c r="L7">
-        <v>12.24422171091004</v>
+        <v>7.448361250747941</v>
       </c>
       <c r="M7">
-        <v>15.23614453900811</v>
+        <v>9.910688512896632</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.96391574981761</v>
+        <v>15.77414102240057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.87077463220537</v>
+        <v>12.90226668963652</v>
       </c>
       <c r="C8">
-        <v>13.17784255388623</v>
+        <v>8.820861919972852</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.11111827623913</v>
+        <v>10.52993320780231</v>
       </c>
       <c r="F8">
-        <v>39.25031831032486</v>
+        <v>26.33065517332647</v>
       </c>
       <c r="G8">
-        <v>34.30030628388381</v>
+        <v>23.151717340096</v>
       </c>
       <c r="H8">
-        <v>15.85589708453018</v>
+        <v>9.586839407168416</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.403393879651588</v>
+        <v>5.992282836402281</v>
       </c>
       <c r="K8">
-        <v>7.658409569086755</v>
+        <v>10.63816371555584</v>
       </c>
       <c r="L8">
-        <v>12.25074631294165</v>
+        <v>7.661735650147583</v>
       </c>
       <c r="M8">
-        <v>15.29693339619251</v>
+        <v>10.41912610852642</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.83546816659543</v>
+        <v>15.54760372307525</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.46737197212512</v>
+        <v>14.90934414623648</v>
       </c>
       <c r="C9">
-        <v>13.09042214627022</v>
+        <v>8.565460214773283</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.07032994211212</v>
+        <v>10.79137073994684</v>
       </c>
       <c r="F9">
-        <v>39.11831750096734</v>
+        <v>27.1410039559005</v>
       </c>
       <c r="G9">
-        <v>33.97172311161781</v>
+        <v>22.953018442411</v>
       </c>
       <c r="H9">
-        <v>15.73542603403005</v>
+        <v>9.333635291676586</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.43552328387384</v>
+        <v>6.108946617098103</v>
       </c>
       <c r="K9">
-        <v>8.23533307753749</v>
+        <v>11.83532194998096</v>
       </c>
       <c r="L9">
-        <v>12.27483414319606</v>
+        <v>8.083872233007035</v>
       </c>
       <c r="M9">
-        <v>15.42936953201598</v>
+        <v>11.37101495702502</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.61778580216651</v>
+        <v>15.19039486796616</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.89421546117151</v>
+        <v>16.23161436917576</v>
       </c>
       <c r="C10">
-        <v>13.03204243048264</v>
+        <v>8.387828922137839</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.05150449763593</v>
+        <v>11.0039844852242</v>
       </c>
       <c r="F10">
-        <v>39.06088904684616</v>
+        <v>27.82497636538151</v>
       </c>
       <c r="G10">
-        <v>33.77195333416126</v>
+        <v>22.94641784151179</v>
       </c>
       <c r="H10">
-        <v>15.6570467077664</v>
+        <v>9.171948238905713</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.45871480254366</v>
+        <v>6.193493717226646</v>
       </c>
       <c r="K10">
-        <v>8.628758187306559</v>
+        <v>12.6420011504761</v>
       </c>
       <c r="L10">
-        <v>12.29930376245124</v>
+        <v>8.393572461613866</v>
       </c>
       <c r="M10">
-        <v>15.53425228306412</v>
+        <v>12.03642636593391</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.47870909332185</v>
+        <v>14.98750531608827</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.08505278738018</v>
+        <v>16.80063450497772</v>
       </c>
       <c r="C11">
-        <v>13.00674207637681</v>
+        <v>8.309107251358567</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>17.04534870292972</v>
+        <v>11.10505774588014</v>
       </c>
       <c r="F11">
-        <v>39.0433551550165</v>
+        <v>28.15536218365871</v>
       </c>
       <c r="G11">
-        <v>33.69018069537982</v>
+        <v>22.97728008950182</v>
       </c>
       <c r="H11">
-        <v>15.62358151694376</v>
+        <v>9.104137274095983</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.469170651977178</v>
+        <v>6.231668423039468</v>
       </c>
       <c r="K11">
-        <v>8.800645067880811</v>
+        <v>12.9926986263256</v>
       </c>
       <c r="L11">
-        <v>12.31187966227449</v>
+        <v>8.533843524902746</v>
       </c>
       <c r="M11">
-        <v>15.58350293865277</v>
+        <v>12.33069507877206</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.41996914041324</v>
+        <v>14.90967989886071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.1567725590379</v>
+        <v>17.01148245974364</v>
       </c>
       <c r="C12">
-        <v>12.99734134910327</v>
+        <v>8.279590036601638</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>17.04336283125207</v>
+        <v>11.14394654201197</v>
       </c>
       <c r="F12">
-        <v>39.03795006233908</v>
+        <v>28.28322425901706</v>
       </c>
       <c r="G12">
-        <v>33.66052997759339</v>
+        <v>22.99412748408712</v>
       </c>
       <c r="H12">
-        <v>15.61122346352299</v>
+        <v>9.079327583451452</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.4731160337943</v>
+        <v>6.24608008840673</v>
       </c>
       <c r="K12">
-        <v>8.86468126281361</v>
+        <v>13.12313425741717</v>
       </c>
       <c r="L12">
-        <v>12.31684705762377</v>
+        <v>8.586832618407556</v>
       </c>
       <c r="M12">
-        <v>15.60236440698529</v>
+        <v>12.44084224659609</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.39837705092885</v>
+        <v>14.88242806176541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.14135172764315</v>
+        <v>16.96627768062338</v>
       </c>
       <c r="C13">
-        <v>12.99935797196207</v>
+        <v>8.285934174221042</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>17.04377518977858</v>
+        <v>11.13554400310571</v>
       </c>
       <c r="F13">
-        <v>39.03905925378141</v>
+        <v>28.25556476746748</v>
       </c>
       <c r="G13">
-        <v>33.66685722424824</v>
+        <v>22.99026501884248</v>
       </c>
       <c r="H13">
-        <v>15.61387101111098</v>
+        <v>9.084631420311656</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.472266956730195</v>
+        <v>6.242978295624551</v>
       </c>
       <c r="K13">
-        <v>8.850937295041106</v>
+        <v>13.09514817365033</v>
       </c>
       <c r="L13">
-        <v>12.31576815693081</v>
+        <v>8.575426791240414</v>
       </c>
       <c r="M13">
-        <v>15.59829301590527</v>
+        <v>12.41717832759606</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.40299831161039</v>
+        <v>14.88819625911076</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.09096452806346</v>
+        <v>16.81807358103004</v>
       </c>
       <c r="C14">
-        <v>13.00596507043789</v>
+        <v>8.306673019293569</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>17.04517841236034</v>
+        <v>11.10824490279676</v>
       </c>
       <c r="F14">
-        <v>39.04288573753414</v>
+        <v>28.16582642197758</v>
       </c>
       <c r="G14">
-        <v>33.68771493004773</v>
+        <v>22.97856106707003</v>
       </c>
       <c r="H14">
-        <v>15.62255851202416</v>
+        <v>9.102078490846933</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.469495524763065</v>
+        <v>6.23285498405342</v>
       </c>
       <c r="K14">
-        <v>8.805934665825372</v>
+        <v>13.00347718452174</v>
       </c>
       <c r="L14">
-        <v>12.31228423593431</v>
+        <v>8.538205764260152</v>
       </c>
       <c r="M14">
-        <v>15.5850505061092</v>
+        <v>12.33978310645958</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.41817968703778</v>
+        <v>14.90739258293211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.06002788422574</v>
+        <v>16.72669296514664</v>
       </c>
       <c r="C15">
-        <v>13.01003552347099</v>
+        <v>8.319414114784877</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>17.04608284766494</v>
+        <v>11.09160309244616</v>
       </c>
       <c r="F15">
-        <v>39.04539032089191</v>
+        <v>28.11121696374406</v>
       </c>
       <c r="G15">
-        <v>33.70066227101123</v>
+        <v>22.97207263576196</v>
       </c>
       <c r="H15">
-        <v>15.62792080044572</v>
+        <v>9.11287982722669</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.467796101955114</v>
+        <v>6.226648307938885</v>
       </c>
       <c r="K15">
-        <v>8.778231076392697</v>
+        <v>12.94701729273373</v>
       </c>
       <c r="L15">
-        <v>12.31017687567316</v>
+        <v>8.515388934055848</v>
       </c>
       <c r="M15">
-        <v>15.57696630483244</v>
+        <v>12.29220683629124</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.42756357230936</v>
+        <v>14.91944409573934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.88167088567293</v>
+        <v>16.19377757189113</v>
       </c>
       <c r="C16">
-        <v>13.03372109367157</v>
+        <v>8.393014931286032</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.05195515887619</v>
+        <v>10.9974657538274</v>
       </c>
       <c r="F16">
-        <v>39.06220774619179</v>
+        <v>27.80377094664282</v>
       </c>
       <c r="G16">
-        <v>33.77748104820921</v>
+        <v>22.9451073631615</v>
       </c>
       <c r="H16">
-        <v>15.65927776754606</v>
+        <v>9.176498982458424</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.458029553010739</v>
+        <v>6.190992883011861</v>
       </c>
       <c r="K16">
-        <v>8.617379339690237</v>
+        <v>12.61875244494065</v>
       </c>
       <c r="L16">
-        <v>12.2985107509142</v>
+        <v>8.384389555166329</v>
       </c>
       <c r="M16">
-        <v>15.53106375725596</v>
+        <v>12.01701899794987</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.48263902059697</v>
+        <v>14.99289419678346</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.77135158569526</v>
+        <v>15.85856139454578</v>
       </c>
       <c r="C17">
-        <v>13.04857278895894</v>
+        <v>8.438695633320279</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.0561736449398</v>
+        <v>10.94082276008736</v>
       </c>
       <c r="F17">
-        <v>39.07472463978224</v>
+        <v>27.62008265247971</v>
       </c>
       <c r="G17">
-        <v>33.82694264496436</v>
+        <v>22.93744735046341</v>
       </c>
       <c r="H17">
-        <v>15.67907484460671</v>
+        <v>9.217027299830139</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.452013645464532</v>
+        <v>6.169043886714828</v>
       </c>
       <c r="K17">
-        <v>8.516861358588908</v>
+        <v>12.41318472258121</v>
       </c>
       <c r="L17">
-        <v>12.29172217274064</v>
+        <v>8.303838889275934</v>
       </c>
       <c r="M17">
-        <v>15.50329117820639</v>
+        <v>11.84598468276617</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.51758579126104</v>
+        <v>15.04175540341453</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.70758855850255</v>
+        <v>15.66269335480011</v>
       </c>
       <c r="C18">
-        <v>13.05723343938724</v>
+        <v>8.465166498072414</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.05882672875884</v>
+        <v>10.90865379844175</v>
       </c>
       <c r="F18">
-        <v>39.08273269411263</v>
+        <v>27.516242617358</v>
       </c>
       <c r="G18">
-        <v>33.85624819035531</v>
+        <v>22.93621192712212</v>
       </c>
       <c r="H18">
-        <v>15.69066775336687</v>
+        <v>9.240875691655788</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.448544628290762</v>
+        <v>6.156392647040867</v>
       </c>
       <c r="K18">
-        <v>8.458381083903809</v>
+        <v>12.29341769026292</v>
       </c>
       <c r="L18">
-        <v>12.28795369070168</v>
+        <v>8.257452777722849</v>
       </c>
       <c r="M18">
-        <v>15.48746259569888</v>
+        <v>11.74682038804288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.53811229531043</v>
+        <v>15.07121231109933</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.68594829694164</v>
+        <v>15.59584882768939</v>
       </c>
       <c r="C19">
-        <v>13.06018613678222</v>
+        <v>8.474163033688423</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.05976398817312</v>
+        <v>10.89783280082581</v>
       </c>
       <c r="F19">
-        <v>39.08558298488696</v>
+        <v>27.48139584547378</v>
       </c>
       <c r="G19">
-        <v>33.86631748043204</v>
+        <v>22.9363292003728</v>
       </c>
       <c r="H19">
-        <v>15.69462833337768</v>
+        <v>9.24904142234011</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.447368577636219</v>
+        <v>6.15210465555291</v>
       </c>
       <c r="K19">
-        <v>8.438467589646596</v>
+        <v>12.25260483363387</v>
       </c>
       <c r="L19">
-        <v>12.28670120315388</v>
+        <v>8.241738989001524</v>
       </c>
       <c r="M19">
-        <v>15.48212859416351</v>
+        <v>11.71311184265378</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.54513537531389</v>
+        <v>15.08141425178714</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.78312787180036</v>
+        <v>15.89456217045355</v>
       </c>
       <c r="C20">
-        <v>13.04697955765414</v>
+        <v>8.433812552023191</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.05570112245866</v>
+        <v>10.94681009062362</v>
       </c>
       <c r="F20">
-        <v>39.07330850416231</v>
+        <v>27.63944907728235</v>
       </c>
       <c r="G20">
-        <v>33.82158868274146</v>
+        <v>22.93793252056076</v>
       </c>
       <c r="H20">
-        <v>15.67694607895223</v>
+        <v>9.212657053424559</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.452654966117729</v>
+        <v>6.17138318702202</v>
       </c>
       <c r="K20">
-        <v>8.52763075983626</v>
+        <v>12.4352263211817</v>
       </c>
       <c r="L20">
-        <v>12.29243075772874</v>
+        <v>8.312419691982761</v>
       </c>
       <c r="M20">
-        <v>15.50623263250712</v>
+        <v>11.86427389922821</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.51382155003773</v>
+        <v>15.03641301417196</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.10577980183668</v>
+        <v>16.86172995296532</v>
       </c>
       <c r="C21">
-        <v>13.00401952726929</v>
+        <v>8.300573620248839</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.04475689244029</v>
+        <v>11.11624672725314</v>
       </c>
       <c r="F21">
-        <v>39.04172830813239</v>
+        <v>28.19211020379149</v>
       </c>
       <c r="G21">
-        <v>33.68155278790904</v>
+        <v>22.98185646019891</v>
       </c>
       <c r="H21">
-        <v>15.61999825061599</v>
+        <v>9.096929918364474</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.470309945998828</v>
+        <v>6.235829671731132</v>
       </c>
       <c r="K21">
-        <v>8.819181881925235</v>
+        <v>13.03046755865672</v>
       </c>
       <c r="L21">
-        <v>12.31330200055811</v>
+        <v>8.549142274818097</v>
       </c>
       <c r="M21">
-        <v>15.58893449815189</v>
+        <v>12.3625513899844</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.41370286452751</v>
+        <v>14.90169279489348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.31344011232527</v>
+        <v>17.46687801153134</v>
       </c>
       <c r="C22">
-        <v>12.97699130298645</v>
+        <v>8.215198771761804</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.03961569368548</v>
+        <v>11.23055965001507</v>
       </c>
       <c r="F22">
-        <v>39.02828432765065</v>
+        <v>28.56933738148303</v>
       </c>
       <c r="G22">
-        <v>33.59769748673489</v>
+        <v>23.04077268185134</v>
       </c>
       <c r="H22">
-        <v>15.58461244321329</v>
+        <v>9.026382852895926</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.48176653575872</v>
+        <v>6.277689787832322</v>
       </c>
       <c r="K22">
-        <v>9.003572680122042</v>
+        <v>13.40569518418994</v>
       </c>
       <c r="L22">
-        <v>12.32813720655416</v>
+        <v>8.703088796412201</v>
       </c>
       <c r="M22">
-        <v>15.64421183287367</v>
+        <v>12.68068265395536</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.35206695373118</v>
+        <v>14.82664886856328</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20292259411929</v>
+        <v>17.14635034663931</v>
       </c>
       <c r="C23">
-        <v>12.99132107621767</v>
+        <v>8.260611205963544</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.04217597683464</v>
+        <v>11.16922543996301</v>
       </c>
       <c r="F23">
-        <v>39.03480163459518</v>
+        <v>28.36654355450793</v>
       </c>
       <c r="G23">
-        <v>33.64174932293255</v>
+        <v>23.00646951893793</v>
       </c>
       <c r="H23">
-        <v>15.60333094156377</v>
+        <v>9.063554314166868</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.475659601598609</v>
+        <v>6.255372989730466</v>
       </c>
       <c r="K23">
-        <v>8.905733471142685</v>
+        <v>13.20669831812822</v>
       </c>
       <c r="L23">
-        <v>12.32011094404485</v>
+        <v>8.621007121492857</v>
       </c>
       <c r="M23">
-        <v>15.61460038585163</v>
+        <v>12.51159961186156</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.38461555742899</v>
+        <v>14.86546369553728</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.777804863639</v>
+        <v>15.87829602765754</v>
       </c>
       <c r="C24">
-        <v>13.04769947678798</v>
+        <v>8.436019543391344</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.05591404016304</v>
+        <v>10.9441019846305</v>
       </c>
       <c r="F24">
-        <v>39.07394620995868</v>
+        <v>27.63068801854106</v>
       </c>
       <c r="G24">
-        <v>33.82400650132723</v>
+        <v>22.937703328363</v>
       </c>
       <c r="H24">
-        <v>15.67790783566557</v>
+        <v>9.214631137769794</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.45236505738035</v>
+        <v>6.170325690250384</v>
       </c>
       <c r="K24">
-        <v>8.522764063632913</v>
+        <v>12.4252662442823</v>
       </c>
       <c r="L24">
-        <v>12.29210998774507</v>
+        <v>8.308540546136559</v>
       </c>
       <c r="M24">
-        <v>15.50490236965167</v>
+        <v>11.8560079376755</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.51552200809545</v>
+        <v>15.03882406408831</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.30768932978073</v>
+        <v>14.39331273716106</v>
       </c>
       <c r="C25">
-        <v>13.11304072901784</v>
+        <v>8.632766146534891</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.07940416242964</v>
+        <v>10.71700527949894</v>
       </c>
       <c r="F25">
-        <v>39.14708402254485</v>
+        <v>26.90624510482668</v>
       </c>
       <c r="G25">
-        <v>34.0533236079984</v>
+        <v>22.98351653604762</v>
       </c>
       <c r="H25">
-        <v>15.76623476699296</v>
+        <v>9.398003129622074</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.42690251912715</v>
+        <v>6.077578530978458</v>
       </c>
       <c r="K25">
-        <v>8.084425830444244</v>
+        <v>11.52406426663921</v>
       </c>
       <c r="L25">
-        <v>12.26711980562984</v>
+        <v>7.969563828194349</v>
       </c>
       <c r="M25">
-        <v>15.39217426300592</v>
+        <v>11.11905517680139</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.67301271998919</v>
+        <v>15.2770680053582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19739734291622</v>
+        <v>20.5902241959985</v>
       </c>
       <c r="C2">
-        <v>8.784384443382525</v>
+        <v>15.4805050862696</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.56364796704516</v>
+        <v>14.06136409359876</v>
       </c>
       <c r="F2">
-        <v>26.43241791126891</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>23.10947029155519</v>
+        <v>13.22759397361809</v>
       </c>
       <c r="H2">
-        <v>9.54919032767344</v>
+        <v>2.166613492425975</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.156862783254703</v>
       </c>
       <c r="J2">
-        <v>6.008523735706508</v>
+        <v>6.873885704489187</v>
       </c>
       <c r="K2">
-        <v>10.81177016565669</v>
+        <v>10.17789660900805</v>
       </c>
       <c r="L2">
-        <v>7.719905775545137</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.55410299614446</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.49188750702275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.57088527840715</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.07711194965017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32211704681531</v>
+        <v>19.31178132928642</v>
       </c>
       <c r="C3">
-        <v>8.891482670506624</v>
+        <v>14.69341064305987</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.46847784312043</v>
+        <v>13.49824094032101</v>
       </c>
       <c r="F3">
-        <v>26.1481670832696</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>23.24679521895759</v>
+        <v>13.15787823166208</v>
       </c>
       <c r="H3">
-        <v>9.661134422394444</v>
+        <v>1.977133301110242</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.028394458079674</v>
       </c>
       <c r="J3">
-        <v>5.961302122956407</v>
+        <v>6.967910586845109</v>
       </c>
       <c r="K3">
-        <v>10.29971894300408</v>
+        <v>10.4717612106236</v>
       </c>
       <c r="L3">
-        <v>7.551555647284017</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.15939814456923</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.65991114707215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.5187704339451</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.19520689121341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.75246560651622</v>
+        <v>18.48053600123258</v>
       </c>
       <c r="C4">
-        <v>8.959426757913159</v>
+        <v>14.19171337214129</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.41438957595031</v>
+        <v>13.13950237383719</v>
       </c>
       <c r="F4">
-        <v>25.99162056572841</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>23.35491330665086</v>
+        <v>13.13336808465156</v>
       </c>
       <c r="H4">
-        <v>9.734368019961108</v>
+        <v>1.856714134977136</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.947481943978254</v>
       </c>
       <c r="J4">
-        <v>5.932118707778826</v>
+        <v>7.028743204041629</v>
       </c>
       <c r="K4">
-        <v>9.971354643505068</v>
+        <v>10.65640560859604</v>
       </c>
       <c r="L4">
-        <v>7.448923149813445</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.912058522994426</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.77349283318208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.83807166061038</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.27540799980678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51218817909642</v>
+        <v>18.12954650681905</v>
       </c>
       <c r="C5">
-        <v>8.987669921681995</v>
+        <v>13.99429412445934</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.39344346364575</v>
+        <v>12.98828561451666</v>
       </c>
       <c r="F5">
-        <v>25.9323088133565</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>23.40468861811001</v>
+        <v>13.11302390119662</v>
       </c>
       <c r="H5">
-        <v>9.76531819641313</v>
+        <v>1.8064981363887</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.914467504198334</v>
       </c>
       <c r="J5">
-        <v>5.920181767348614</v>
+        <v>7.052308289313538</v>
       </c>
       <c r="K5">
-        <v>9.834126120237769</v>
+        <v>10.73067300232184</v>
       </c>
       <c r="L5">
-        <v>7.407334248441861</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.810155087743524</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.82230550976199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.55389524002927</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.30459569352804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4717976375692</v>
+        <v>18.06976074211388</v>
       </c>
       <c r="C6">
-        <v>8.992393392351071</v>
+        <v>13.97533454423071</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.39003155494274</v>
+        <v>12.96069066278435</v>
       </c>
       <c r="F6">
-        <v>25.92272943572439</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>23.41329127502285</v>
+        <v>13.09190077287982</v>
       </c>
       <c r="H6">
-        <v>9.77052362320266</v>
+        <v>1.797968753557596</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.909728374941715</v>
       </c>
       <c r="J6">
-        <v>5.918197052597295</v>
+        <v>7.053845668674214</v>
       </c>
       <c r="K6">
-        <v>9.811136112474903</v>
+        <v>10.74058208441958</v>
       </c>
       <c r="L6">
-        <v>7.40044408746202</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.793171526180025</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.83056088159576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.50845305315582</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.30304196660498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74925814619582</v>
+        <v>18.47370854254075</v>
       </c>
       <c r="C7">
-        <v>8.959805398587077</v>
+        <v>14.22690695937181</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.41410265309659</v>
+        <v>13.13131329797462</v>
       </c>
       <c r="F7">
-        <v>25.99080258063999</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>23.35556179959599</v>
+        <v>13.08397315901809</v>
       </c>
       <c r="H7">
-        <v>9.734780974063813</v>
+        <v>1.855701903419883</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.948848645614954</v>
       </c>
       <c r="J7">
-        <v>5.931957897960789</v>
+        <v>7.022444668742002</v>
       </c>
       <c r="K7">
-        <v>9.969517631894933</v>
+        <v>10.65063895700387</v>
       </c>
       <c r="L7">
-        <v>7.448361250747941</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.910688512896632</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.77414102240057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.84031317332787</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.25798914911305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90226668963652</v>
+        <v>20.15646088738278</v>
       </c>
       <c r="C8">
-        <v>8.820861919972852</v>
+        <v>15.2603198701263</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.52993320780231</v>
+        <v>13.86231422017848</v>
       </c>
       <c r="F8">
-        <v>26.33065517332647</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>23.151717340096</v>
+        <v>13.13526746792452</v>
       </c>
       <c r="H8">
-        <v>9.586839407168416</v>
+        <v>2.10171366589452</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.115001484312448</v>
       </c>
       <c r="J8">
-        <v>5.992282836402281</v>
+        <v>6.896887968590137</v>
       </c>
       <c r="K8">
-        <v>10.63816371555584</v>
+        <v>10.26963671985648</v>
       </c>
       <c r="L8">
-        <v>7.661735650147583</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>10.41912610852642</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.54760372307525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.22275158017146</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.0925086715338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.90934414623648</v>
+        <v>23.09146143206662</v>
       </c>
       <c r="C9">
-        <v>8.565460214773283</v>
+        <v>17.07303627110019</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.79137073994684</v>
+        <v>15.19858222772847</v>
       </c>
       <c r="F9">
-        <v>27.1410039559005</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>22.953018442411</v>
+        <v>13.47728545895832</v>
       </c>
       <c r="H9">
-        <v>9.333635291676586</v>
+        <v>2.552960324833202</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.422874249538137</v>
       </c>
       <c r="J9">
-        <v>6.108946617098103</v>
+        <v>6.688275661787253</v>
       </c>
       <c r="K9">
-        <v>11.83532194998096</v>
+        <v>9.566580804219875</v>
       </c>
       <c r="L9">
-        <v>8.083872233007035</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.37101495702502</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.19039486796616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.64614614184006</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>9.865994747252357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.23161436917576</v>
+        <v>25.08484636278625</v>
       </c>
       <c r="C10">
-        <v>8.387828922137839</v>
+        <v>18.34904671738936</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.0039844852242</v>
+        <v>15.59770742567492</v>
       </c>
       <c r="F10">
-        <v>27.82497636538151</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>22.94641784151179</v>
+        <v>13.57804005033628</v>
       </c>
       <c r="H10">
-        <v>9.171948238905713</v>
+        <v>2.844244100901262</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.638328189065258</v>
       </c>
       <c r="J10">
-        <v>6.193493717226646</v>
+        <v>6.516599207633984</v>
       </c>
       <c r="K10">
-        <v>12.6420011504761</v>
+        <v>9.042552482842442</v>
       </c>
       <c r="L10">
-        <v>8.393572461613866</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.03642636593391</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.98750531608827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.99683341418988</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>9.648450451192369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.80063450497772</v>
+        <v>26.478524944173</v>
       </c>
       <c r="C11">
-        <v>8.309107251358567</v>
+        <v>19.18508416347857</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.10505774588014</v>
+        <v>11.72686905347778</v>
       </c>
       <c r="F11">
-        <v>28.15536218365871</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>22.97728008950182</v>
+        <v>11.57573443110007</v>
       </c>
       <c r="H11">
-        <v>9.104137274095983</v>
+        <v>3.453011911215338</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.716444961323558</v>
       </c>
       <c r="J11">
-        <v>6.231668423039468</v>
+        <v>6.157585754846743</v>
       </c>
       <c r="K11">
-        <v>12.9926986263256</v>
+        <v>8.679474855810669</v>
       </c>
       <c r="L11">
-        <v>8.533843524902746</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.33069507877206</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.90967989886071</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.35456552133223</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>8.771290688447772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.01148245974364</v>
+        <v>27.26027249532816</v>
       </c>
       <c r="C12">
-        <v>8.279590036601638</v>
+        <v>19.58910990418824</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.14394654201197</v>
+        <v>9.224383645854417</v>
       </c>
       <c r="F12">
-        <v>28.28322425901706</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>22.99412748408712</v>
+        <v>9.9169471474845</v>
       </c>
       <c r="H12">
-        <v>9.079327583451452</v>
+        <v>4.527295950839026</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.739312536939472</v>
       </c>
       <c r="J12">
-        <v>6.24608008840673</v>
+        <v>5.911051056581758</v>
       </c>
       <c r="K12">
-        <v>13.12313425741717</v>
+        <v>8.588360419667055</v>
       </c>
       <c r="L12">
-        <v>8.586832618407556</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.44084224659609</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.88242806176541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.66493179268003</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8.123564464015542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96627768062338</v>
+        <v>27.64120253910556</v>
       </c>
       <c r="C13">
-        <v>8.285934174221042</v>
+        <v>19.7423573166659</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.13554400310571</v>
+        <v>8.342282245262304</v>
       </c>
       <c r="F13">
-        <v>28.25556476746748</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>22.99026501884248</v>
+        <v>8.342632918399149</v>
       </c>
       <c r="H13">
-        <v>9.084631420311656</v>
+        <v>5.747204062012706</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.723920820439524</v>
       </c>
       <c r="J13">
-        <v>6.242978295624551</v>
+        <v>5.729370720832941</v>
       </c>
       <c r="K13">
-        <v>13.09514817365033</v>
+        <v>8.684114557017484</v>
       </c>
       <c r="L13">
-        <v>8.575426791240414</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.41717832759606</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.88819625911076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.79042634118477</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7.598681884243623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.81807358103004</v>
+        <v>27.73201168723046</v>
       </c>
       <c r="C14">
-        <v>8.306673019293569</v>
+        <v>19.7477769969206</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.10824490279676</v>
+        <v>8.959260716911114</v>
       </c>
       <c r="F14">
-        <v>28.16582642197758</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>22.97856106707003</v>
+        <v>7.293405384054773</v>
       </c>
       <c r="H14">
-        <v>9.102078490846933</v>
+        <v>6.650040421475587</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.697036437675703</v>
       </c>
       <c r="J14">
-        <v>6.23285498405342</v>
+        <v>5.634881166823131</v>
       </c>
       <c r="K14">
-        <v>13.00347718452174</v>
+        <v>8.842999369407707</v>
       </c>
       <c r="L14">
-        <v>8.538205764260152</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.33978310645958</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.90739258293211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.3695171362404</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7.30035905246649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.72669296514664</v>
+        <v>27.66753144914312</v>
       </c>
       <c r="C15">
-        <v>8.319414114784877</v>
+        <v>19.70723357160396</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.09160309244616</v>
+        <v>9.250464070831436</v>
       </c>
       <c r="F15">
-        <v>28.11121696374406</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>22.97207263576196</v>
+        <v>7.052142335462743</v>
       </c>
       <c r="H15">
-        <v>9.11287982722669</v>
+        <v>6.856948808321076</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.682686758987251</v>
       </c>
       <c r="J15">
-        <v>6.226648307938885</v>
+        <v>5.62321760980476</v>
       </c>
       <c r="K15">
-        <v>12.94701729273373</v>
+        <v>8.909628323126428</v>
       </c>
       <c r="L15">
-        <v>8.515388934055848</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.29220683629124</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.91944409573934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.98157060702549</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7.249147420195484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.19377757189113</v>
+        <v>26.81115757242593</v>
       </c>
       <c r="C16">
-        <v>8.393014931286032</v>
+        <v>19.18230246078065</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.9974657538274</v>
+        <v>9.137738531121947</v>
       </c>
       <c r="F16">
-        <v>27.80377094664282</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>22.9451073631615</v>
+        <v>7.296626712819022</v>
       </c>
       <c r="H16">
-        <v>9.176498982458424</v>
+        <v>6.59154284350728</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.59496325649925</v>
       </c>
       <c r="J16">
-        <v>6.190992883011861</v>
+        <v>5.734717469576363</v>
       </c>
       <c r="K16">
-        <v>12.61875244494065</v>
+        <v>9.089192826155843</v>
       </c>
       <c r="L16">
-        <v>8.384389555166329</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.01701899794987</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.99289419678346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.65651515535765</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7.457130478436623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.85856139454578</v>
+        <v>26.08673030194797</v>
       </c>
       <c r="C17">
-        <v>8.438695633320279</v>
+        <v>18.76960324209091</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.94082276008736</v>
+        <v>8.535819182641081</v>
       </c>
       <c r="F17">
-        <v>27.62008265247971</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>22.93744735046341</v>
+        <v>8.016677064285368</v>
       </c>
       <c r="H17">
-        <v>9.217027299830139</v>
+        <v>5.859901049315789</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.541836158944666</v>
       </c>
       <c r="J17">
-        <v>6.169043886714828</v>
+        <v>5.867329936519329</v>
       </c>
       <c r="K17">
-        <v>12.41318472258121</v>
+        <v>9.142893603007474</v>
       </c>
       <c r="L17">
-        <v>8.303838889275934</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>11.84598468276617</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.04175540341453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.19915604577198</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>7.762666714246769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.66269335480011</v>
+        <v>25.40832455930958</v>
       </c>
       <c r="C18">
-        <v>8.465166498072414</v>
+        <v>18.38713944752317</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.90865379844175</v>
+        <v>8.506477258572787</v>
       </c>
       <c r="F18">
-        <v>27.516242617358</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>22.93621192712212</v>
+        <v>9.288203748009732</v>
       </c>
       <c r="H18">
-        <v>9.240875691655788</v>
+        <v>4.697113616180348</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.512224138010744</v>
       </c>
       <c r="J18">
-        <v>6.156392647040867</v>
+        <v>6.04517979801471</v>
       </c>
       <c r="K18">
-        <v>12.29341769026292</v>
+        <v>9.13342205600007</v>
       </c>
       <c r="L18">
-        <v>8.257452777722849</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>11.74682038804288</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.07121231109933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.5527921906092</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>8.221818619446681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.59584882768939</v>
+        <v>24.82728873138156</v>
       </c>
       <c r="C19">
-        <v>8.474163033688423</v>
+        <v>18.1272870144101</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.89783280082581</v>
+        <v>10.3903538527475</v>
       </c>
       <c r="F19">
-        <v>27.48139584547378</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>22.9363292003728</v>
+        <v>10.87934955968793</v>
       </c>
       <c r="H19">
-        <v>9.24904142234011</v>
+        <v>3.464669194651736</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.513734670104957</v>
       </c>
       <c r="J19">
-        <v>6.15210465555291</v>
+        <v>6.25027731369424</v>
       </c>
       <c r="K19">
-        <v>12.25260483363387</v>
+        <v>9.142035790680474</v>
       </c>
       <c r="L19">
-        <v>8.241738989001524</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>11.71311184265378</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.08141425178714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.44557443523664</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>8.782702810313179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.89456217045355</v>
+        <v>24.57504778337191</v>
       </c>
       <c r="C20">
-        <v>8.433812552023191</v>
+        <v>18.11943290084051</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.94681009062362</v>
+        <v>15.45583231365277</v>
       </c>
       <c r="F20">
-        <v>27.63944907728235</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>22.93793252056076</v>
+        <v>13.38962915057566</v>
       </c>
       <c r="H20">
-        <v>9.212657053424559</v>
+        <v>2.765973718010746</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.589602756362139</v>
       </c>
       <c r="J20">
-        <v>6.17138318702202</v>
+        <v>6.538449450026651</v>
       </c>
       <c r="K20">
-        <v>12.4352263211817</v>
+        <v>9.159699209858676</v>
       </c>
       <c r="L20">
-        <v>8.312419691982761</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11.86427389922821</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.03641301417196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.65406522449073</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9.642586955777324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86172995296532</v>
+        <v>25.9374589484086</v>
       </c>
       <c r="C21">
-        <v>8.300573620248839</v>
+        <v>19.00043370958054</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.11624672725314</v>
+        <v>16.53697727456994</v>
       </c>
       <c r="F21">
-        <v>28.19211020379149</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>22.98185646019891</v>
+        <v>13.89732484756477</v>
       </c>
       <c r="H21">
-        <v>9.096929918364474</v>
+        <v>3.01911200263072</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.755534605821943</v>
       </c>
       <c r="J21">
-        <v>6.235829671731132</v>
+        <v>6.467468415450312</v>
       </c>
       <c r="K21">
-        <v>13.03046755865672</v>
+        <v>8.801585836648556</v>
       </c>
       <c r="L21">
-        <v>8.549142274818097</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.3625513899844</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.90169279489348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.0384181184182</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9.643163202180435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.46687801153134</v>
+        <v>26.82153908001654</v>
       </c>
       <c r="C22">
-        <v>8.215198771761804</v>
+        <v>19.5339390803923</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.23055965001507</v>
+        <v>16.97260562765232</v>
       </c>
       <c r="F22">
-        <v>28.56933738148303</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>23.04077268185134</v>
+        <v>14.1878948863179</v>
       </c>
       <c r="H22">
-        <v>9.026382852895926</v>
+        <v>3.169823883709388</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.858062490114071</v>
       </c>
       <c r="J22">
-        <v>6.277689787832322</v>
+        <v>6.417116244977573</v>
       </c>
       <c r="K22">
-        <v>13.40569518418994</v>
+        <v>8.567236443782878</v>
       </c>
       <c r="L22">
-        <v>8.703088796412201</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.68068265395536</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.82664886856328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.77143529114826</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9.632332797260069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.14635034663931</v>
+        <v>26.35513961809729</v>
       </c>
       <c r="C23">
-        <v>8.260611205963544</v>
+        <v>19.2160306416588</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.16922543996301</v>
+        <v>16.74687196637465</v>
       </c>
       <c r="F23">
-        <v>28.36654355450793</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>23.00646951893793</v>
+        <v>14.08348941741814</v>
       </c>
       <c r="H23">
-        <v>9.063554314166868</v>
+        <v>3.089913729253208</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.800557791508846</v>
       </c>
       <c r="J23">
-        <v>6.255372989730466</v>
+        <v>6.451524648591264</v>
       </c>
       <c r="K23">
-        <v>13.20669831812822</v>
+        <v>8.699238273236679</v>
       </c>
       <c r="L23">
-        <v>8.621007121492857</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.51159961186156</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.86546369553728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.37790583125318</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>9.658250395993097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.87829602765754</v>
+        <v>24.504550990594</v>
       </c>
       <c r="C24">
-        <v>8.436019543391344</v>
+        <v>18.02724359650829</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.9441019846305</v>
+        <v>15.85614627378968</v>
       </c>
       <c r="F24">
-        <v>27.63068801854106</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>22.937703328363</v>
+        <v>13.65020272107675</v>
       </c>
       <c r="H24">
-        <v>9.214631137769794</v>
+        <v>2.780781954185244</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.584262770124481</v>
       </c>
       <c r="J24">
-        <v>6.170325690250384</v>
+        <v>6.577350900943399</v>
       </c>
       <c r="K24">
-        <v>12.4252662442823</v>
+        <v>9.193756661527132</v>
       </c>
       <c r="L24">
-        <v>8.308540546136559</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>11.8560079376755</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.03882406408831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.83230397145329</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9.745866255594802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.39331273716106</v>
+        <v>22.33382860898483</v>
       </c>
       <c r="C25">
-        <v>8.632766146534891</v>
+        <v>16.65934962306717</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.71700527949894</v>
+        <v>14.83953613661083</v>
       </c>
       <c r="F25">
-        <v>26.90624510482668</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>22.98351653604762</v>
+        <v>13.28117194313712</v>
       </c>
       <c r="H25">
-        <v>9.398003129622074</v>
+        <v>2.433706001110314</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.344814128217215</v>
       </c>
       <c r="J25">
-        <v>6.077578530978458</v>
+        <v>6.729784205653205</v>
       </c>
       <c r="K25">
-        <v>11.52406426663921</v>
+        <v>9.742037980308227</v>
       </c>
       <c r="L25">
-        <v>7.969563828194349</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.11905517680139</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.2770680053582</v>
+        <v>19.02971108024613</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9.887053027226074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.5902241959985</v>
+        <v>20.59000332095422</v>
       </c>
       <c r="C2">
-        <v>15.4805050862696</v>
+        <v>15.35773647568965</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.06136409359876</v>
+        <v>14.02023186445841</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>13.22759397361809</v>
+        <v>12.48015967510639</v>
       </c>
       <c r="H2">
-        <v>2.166613492425975</v>
+        <v>2.153678862098705</v>
       </c>
       <c r="I2">
-        <v>3.156862783254703</v>
+        <v>3.155271826358731</v>
       </c>
       <c r="J2">
-        <v>6.873885704489187</v>
+        <v>7.593668613978203</v>
       </c>
       <c r="K2">
-        <v>10.17789660900805</v>
+        <v>10.1882125256062</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.567534828163435</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.492907129579291</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.57088527840715</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.07711194965017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.57102830070886</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.15404261082617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.31178132928642</v>
+        <v>19.3228386868081</v>
       </c>
       <c r="C3">
-        <v>14.69341064305987</v>
+        <v>14.50094871128589</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.49824094032101</v>
+        <v>13.47636495295917</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>13.15787823166208</v>
+        <v>12.42900129410665</v>
       </c>
       <c r="H3">
-        <v>1.977133301110242</v>
+        <v>1.970205871949247</v>
       </c>
       <c r="I3">
-        <v>3.028394458079674</v>
+        <v>3.041287192561487</v>
       </c>
       <c r="J3">
-        <v>6.967910586845109</v>
+        <v>7.65737730709179</v>
       </c>
       <c r="K3">
-        <v>10.4717612106236</v>
+        <v>10.46092149038364</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.760911902771422</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.777714684827117</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.5187704339451</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.19520689121341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.51339508821394</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.27674853033184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48053600123258</v>
+        <v>18.49913011116216</v>
       </c>
       <c r="C4">
-        <v>14.19171337214129</v>
+        <v>13.95415244580713</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.13950237383719</v>
+        <v>13.13021870857253</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>13.13336808465156</v>
+        <v>12.41581023879168</v>
       </c>
       <c r="H4">
-        <v>1.856714134977136</v>
+        <v>1.853574927476886</v>
       </c>
       <c r="I4">
-        <v>2.947481943978254</v>
+        <v>2.969634873206083</v>
       </c>
       <c r="J4">
-        <v>7.028743204041629</v>
+        <v>7.69795266279405</v>
       </c>
       <c r="K4">
-        <v>10.65640560859604</v>
+        <v>10.63216901393652</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.890150379520358</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.966745647682502</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.83807166061038</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.27540799980678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.82902334921638</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.35806262638427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12954650681905</v>
+        <v>18.15139465487195</v>
       </c>
       <c r="C5">
-        <v>13.99429412445934</v>
+        <v>13.7375264884537</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.98828561451666</v>
+        <v>12.98438154106769</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>13.11302390119662</v>
+        <v>12.39964690797842</v>
       </c>
       <c r="H5">
-        <v>1.8064981363887</v>
+        <v>1.804930076056359</v>
       </c>
       <c r="I5">
-        <v>2.914467504198334</v>
+        <v>2.940734097750791</v>
       </c>
       <c r="J5">
-        <v>7.052308289313538</v>
+        <v>7.712956207727098</v>
       </c>
       <c r="K5">
-        <v>10.73067300232184</v>
+        <v>10.70077840957454</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.942111394507403</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.047924105291304</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.55389524002927</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.30459569352804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.54322001751571</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.38741386232436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06976074211388</v>
+        <v>18.09217861329897</v>
       </c>
       <c r="C6">
-        <v>13.97533454423071</v>
+        <v>13.71499974850371</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.96069066278435</v>
+        <v>12.95776194130648</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>13.09190077287982</v>
+        <v>12.37877917521478</v>
       </c>
       <c r="H6">
-        <v>1.797968753557596</v>
+        <v>1.796664764261945</v>
       </c>
       <c r="I6">
-        <v>2.909728374941715</v>
+        <v>2.93702255467317</v>
       </c>
       <c r="J6">
-        <v>7.053845668674214</v>
+        <v>7.713159229223483</v>
       </c>
       <c r="K6">
-        <v>10.74058208441958</v>
+        <v>10.70962862610926</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.946900698418789</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.062481217373748</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.50845305315582</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.30304196660498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.49742511292327</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.3860120485351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.47370854254075</v>
+        <v>18.49229970831299</v>
       </c>
       <c r="C7">
-        <v>14.22690695937181</v>
+        <v>13.98196124609575</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.13131329797462</v>
+        <v>13.12205936275378</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>13.08397315901809</v>
+        <v>12.44375567637944</v>
       </c>
       <c r="H7">
-        <v>1.855701903419883</v>
+        <v>1.852234737482534</v>
       </c>
       <c r="I7">
-        <v>2.948848645614954</v>
+        <v>2.971440789295119</v>
       </c>
       <c r="J7">
-        <v>7.022444668742002</v>
+        <v>7.664567501435833</v>
       </c>
       <c r="K7">
-        <v>10.65063895700387</v>
+        <v>10.62385399965176</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.876946964203455</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.970478959528179</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.84031317332787</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.25798914911305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.83011416646527</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.33130677868109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.15646088738278</v>
+        <v>20.15982769532219</v>
       </c>
       <c r="C8">
-        <v>15.2603198701263</v>
+        <v>15.09358360676125</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.86231422017848</v>
+        <v>13.82739769079068</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>13.13526746792452</v>
+        <v>12.65311613793147</v>
       </c>
       <c r="H8">
-        <v>2.10171366589452</v>
+        <v>2.089750006324606</v>
       </c>
       <c r="I8">
-        <v>3.115001484312448</v>
+        <v>3.117920056382158</v>
       </c>
       <c r="J8">
-        <v>6.896887968590137</v>
+        <v>7.518792009881444</v>
       </c>
       <c r="K8">
-        <v>10.26963671985648</v>
+        <v>10.26604663567078</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.611928079327733</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.587916948324454</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.22275158017146</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.0925086715338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.21794008403863</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.13970578934767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.09146143206662</v>
+        <v>23.06956110695995</v>
       </c>
       <c r="C9">
-        <v>17.07303627110019</v>
+        <v>17.06461215209908</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.19858222772847</v>
+        <v>15.11998305146604</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>13.47728545895832</v>
+        <v>13.01487151968053</v>
       </c>
       <c r="H9">
-        <v>2.552960324833202</v>
+        <v>2.526347281695434</v>
       </c>
       <c r="I9">
-        <v>3.422874249538137</v>
+        <v>3.39044909282479</v>
       </c>
       <c r="J9">
-        <v>6.688275661787253</v>
+        <v>7.350353744982467</v>
       </c>
       <c r="K9">
-        <v>9.566580804219875</v>
+        <v>9.613037807821041</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.204999066398315</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4.954016547804276</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.64614614184006</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9.865994747252357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.65313529867987</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>9.881470548358532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.08484636278625</v>
+        <v>25.04702863531791</v>
       </c>
       <c r="C10">
-        <v>18.34904671738936</v>
+        <v>18.40127780714864</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.59770742567492</v>
+        <v>15.49124374545899</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>13.57804005033628</v>
+        <v>13.57986238707335</v>
       </c>
       <c r="H10">
-        <v>2.844244100901262</v>
+        <v>2.80593185882335</v>
       </c>
       <c r="I10">
-        <v>3.638328189065258</v>
+        <v>3.580275400602929</v>
       </c>
       <c r="J10">
-        <v>6.516599207633984</v>
+        <v>7.063636946612531</v>
       </c>
       <c r="K10">
-        <v>9.042552482842442</v>
+        <v>9.122055295868803</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.947256336743273</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.536841984392103</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.99683341418988</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9.648450451192369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.00443617385916</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>9.584445790843741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.478524944173</v>
+        <v>26.44003735277282</v>
       </c>
       <c r="C11">
-        <v>19.18508416347857</v>
+        <v>19.09143326083772</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.72686905347778</v>
+        <v>11.6010389081893</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>11.57573443110007</v>
+        <v>12.65740158473749</v>
       </c>
       <c r="H11">
-        <v>3.453011911215338</v>
+        <v>3.417251505053995</v>
       </c>
       <c r="I11">
-        <v>3.716444961323558</v>
+        <v>3.647668022640786</v>
       </c>
       <c r="J11">
-        <v>6.157585754846743</v>
+        <v>6.591968496205698</v>
       </c>
       <c r="K11">
-        <v>8.679474855810669</v>
+        <v>8.826963008242029</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.836788111779402</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.205605537006335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.35456552133223</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8.771290688447772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.33801133572852</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>8.67945487176355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.26027249532816</v>
+        <v>27.22420510251746</v>
       </c>
       <c r="C12">
-        <v>19.58910990418824</v>
+        <v>19.3759599950422</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.224383645854417</v>
+        <v>9.071046382994346</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>9.9169471474845</v>
+        <v>11.53041098779473</v>
       </c>
       <c r="H12">
-        <v>4.527295950839026</v>
+        <v>4.499467020123736</v>
       </c>
       <c r="I12">
-        <v>3.739312536939472</v>
+        <v>3.665871013036545</v>
       </c>
       <c r="J12">
-        <v>5.911051056581758</v>
+        <v>6.415998449431809</v>
       </c>
       <c r="K12">
-        <v>8.588360419667055</v>
+        <v>8.781375901726875</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.863972729869483</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>4.103691166869418</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.66493179268003</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8.123564464015542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.63074052405695</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>8.067860272385882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.64120253910556</v>
+        <v>27.6101000216492</v>
       </c>
       <c r="C13">
-        <v>19.7423573166659</v>
+        <v>19.43146918608425</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.342282245262304</v>
+        <v>8.171759624464363</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>8.342632918399149</v>
+        <v>9.879803604262182</v>
       </c>
       <c r="H13">
-        <v>5.747204062012706</v>
+        <v>5.726507043994475</v>
       </c>
       <c r="I13">
-        <v>3.723920820439524</v>
+        <v>3.652246378957575</v>
       </c>
       <c r="J13">
-        <v>5.729370720832941</v>
+        <v>6.373016116774669</v>
       </c>
       <c r="K13">
-        <v>8.684114557017484</v>
+        <v>8.882493776048566</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.943266391642624</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.173707999884933</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.79042634118477</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7.598681884243623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.74341411292363</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>7.638847417626085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.73201168723046</v>
+        <v>27.70554579033112</v>
       </c>
       <c r="C14">
-        <v>19.7477769969206</v>
+        <v>19.37638217094723</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.959260716911114</v>
+        <v>8.795444584873287</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>7.293405384054773</v>
+        <v>8.482889417531378</v>
       </c>
       <c r="H14">
-        <v>6.650040421475587</v>
+        <v>6.633429921554153</v>
       </c>
       <c r="I14">
-        <v>3.697036437675703</v>
+        <v>3.62971587369164</v>
       </c>
       <c r="J14">
-        <v>5.634881166823131</v>
+        <v>6.373555923915908</v>
       </c>
       <c r="K14">
-        <v>8.842999369407707</v>
+        <v>9.014660331989846</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.012298769664753</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.309308615141121</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.3695171362404</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7.30035905246649</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.3153374107729</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>7.420767891636338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.66753144914312</v>
+        <v>27.64281630201602</v>
       </c>
       <c r="C15">
-        <v>19.70723357160396</v>
+        <v>19.32450172694863</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.250464070831436</v>
+        <v>9.091998442299042</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>7.052142335462743</v>
+        <v>8.03890841845252</v>
       </c>
       <c r="H15">
-        <v>6.856948808321076</v>
+        <v>6.841458720852908</v>
       </c>
       <c r="I15">
-        <v>3.682686758987251</v>
+        <v>3.618292948119746</v>
       </c>
       <c r="J15">
-        <v>5.62321760980476</v>
+        <v>6.385830825129863</v>
       </c>
       <c r="K15">
-        <v>8.909628323126428</v>
+        <v>9.065177541846305</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.029428082133691</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.369960499593009</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.98157060702549</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7.249147420195484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.92640119967508</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>7.394811867177603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.81115757242593</v>
+        <v>26.79239737169832</v>
       </c>
       <c r="C16">
-        <v>19.18230246078065</v>
+        <v>18.83258547805856</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.137738531121947</v>
+        <v>9.001367883774632</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>7.296626712819022</v>
+        <v>7.407808541890279</v>
       </c>
       <c r="H16">
-        <v>6.59154284350728</v>
+        <v>6.578676460638085</v>
       </c>
       <c r="I16">
-        <v>3.59496325649925</v>
+        <v>3.544759672335814</v>
       </c>
       <c r="J16">
-        <v>5.734717469576363</v>
+        <v>6.546912540077009</v>
       </c>
       <c r="K16">
-        <v>9.089192826155843</v>
+        <v>9.187651376883661</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.010891312082657</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.560874442347966</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.65651515535765</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7.457130478436623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.60855259560804</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>7.660164269371807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.08673030194797</v>
+        <v>26.07009122106291</v>
       </c>
       <c r="C17">
-        <v>18.76960324209091</v>
+        <v>18.47128877276692</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.535819182641081</v>
+        <v>8.411583324742088</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>8.016677064285368</v>
+        <v>7.780932990669454</v>
       </c>
       <c r="H17">
-        <v>5.859901049315789</v>
+        <v>5.847289771841292</v>
       </c>
       <c r="I17">
-        <v>3.541836158944666</v>
+        <v>3.499860780022444</v>
       </c>
       <c r="J17">
-        <v>5.867329936519329</v>
+        <v>6.701624485541603</v>
       </c>
       <c r="K17">
-        <v>9.142893603007474</v>
+        <v>9.229738541857856</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.986027380977891</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.634332447135446</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.19915604577198</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7.762666714246769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.1598267674457</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>7.972208875404424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.40832455930958</v>
+        <v>25.39045987274779</v>
       </c>
       <c r="C18">
-        <v>18.38713944752317</v>
+        <v>18.17294436927961</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.506477258572787</v>
+        <v>8.39589736468395</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>9.288203748009732</v>
+        <v>8.89611530256744</v>
       </c>
       <c r="H18">
-        <v>4.697113616180348</v>
+        <v>4.682235005165778</v>
       </c>
       <c r="I18">
-        <v>3.512224138010744</v>
+        <v>3.473447416327533</v>
       </c>
       <c r="J18">
-        <v>6.04517979801471</v>
+        <v>6.87350738391895</v>
       </c>
       <c r="K18">
-        <v>9.13342205600007</v>
+        <v>9.230342399170553</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.967060204229169</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.635179232082479</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.5527921906092</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8.221818619446681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.52609345925412</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>8.406239708716964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.82728873138156</v>
+        <v>24.80543593452444</v>
       </c>
       <c r="C19">
-        <v>18.1272870144101</v>
+        <v>18.01792077113335</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.3903538527475</v>
+        <v>10.29486959040622</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>10.87934955968793</v>
+        <v>10.3918186732828</v>
       </c>
       <c r="H19">
-        <v>3.464669194651736</v>
+        <v>3.443746072584448</v>
       </c>
       <c r="I19">
-        <v>3.513734670104957</v>
+        <v>3.475880537394528</v>
       </c>
       <c r="J19">
-        <v>6.25027731369424</v>
+        <v>7.050881561205635</v>
       </c>
       <c r="K19">
-        <v>9.142035790680474</v>
+        <v>9.244412571317595</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.978475424871215</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.634392663632395</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.44557443523664</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8.782702810313179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.43399759954243</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>8.915334277248856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.57504778337191</v>
+        <v>24.54161260662462</v>
       </c>
       <c r="C20">
-        <v>18.11943290084051</v>
+        <v>18.17085353453269</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.45583231365277</v>
+        <v>15.35706910496247</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>13.38962915057566</v>
+        <v>13.00256889492913</v>
       </c>
       <c r="H20">
-        <v>2.765973718010746</v>
+        <v>2.731687364468843</v>
       </c>
       <c r="I20">
-        <v>3.589602756362139</v>
+        <v>3.542570924032615</v>
       </c>
       <c r="J20">
-        <v>6.538449450026651</v>
+        <v>7.207164741815</v>
       </c>
       <c r="K20">
-        <v>9.159699209858676</v>
+        <v>9.239170692396325</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.002537350575961</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.631631876345192</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.65406522449073</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9.642586955777324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.66361796500633</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9.639176018027962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.9374589484086</v>
+        <v>25.89067033684771</v>
       </c>
       <c r="C21">
-        <v>19.00043370958054</v>
+        <v>19.02704503547151</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.53697727456994</v>
+        <v>16.41830534798119</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>13.89732484756477</v>
+        <v>15.2491884807461</v>
       </c>
       <c r="H21">
-        <v>3.01911200263072</v>
+        <v>2.97084590548133</v>
       </c>
       <c r="I21">
-        <v>3.755534605821943</v>
+        <v>3.681903505479996</v>
       </c>
       <c r="J21">
-        <v>6.467468415450312</v>
+        <v>6.655627726079389</v>
       </c>
       <c r="K21">
-        <v>8.801585836648556</v>
+        <v>8.871802799887881</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.838160987621047</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.32480304068303</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.0384181184182</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9.643163202180435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.03761130406912</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>9.370551291631267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.82153908001654</v>
+        <v>26.76693523808283</v>
       </c>
       <c r="C22">
-        <v>19.5339390803923</v>
+        <v>19.53297002249229</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.97260562765232</v>
+        <v>16.84316059897671</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>14.1878948863179</v>
+        <v>16.77175382460594</v>
       </c>
       <c r="H22">
-        <v>3.169823883709388</v>
+        <v>3.112745780190913</v>
       </c>
       <c r="I22">
-        <v>3.858062490114071</v>
+        <v>3.766456127496992</v>
       </c>
       <c r="J22">
-        <v>6.417116244977573</v>
+        <v>6.38708497641095</v>
       </c>
       <c r="K22">
-        <v>8.567236443782878</v>
+        <v>8.633162946505818</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.749859569665142</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.126588357999119</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.77143529114826</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9.632332797260069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.76213866095979</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>9.166967438135751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.35513961809729</v>
+        <v>26.30461552378687</v>
       </c>
       <c r="C23">
-        <v>19.2160306416588</v>
+        <v>19.24301233101779</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.74687196637465</v>
+        <v>16.6225173678234</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>14.08348941741814</v>
+        <v>15.81452782194087</v>
       </c>
       <c r="H23">
-        <v>3.089913729253208</v>
+        <v>3.038083777880516</v>
       </c>
       <c r="I23">
-        <v>3.800557791508846</v>
+        <v>3.718050811244767</v>
       </c>
       <c r="J23">
-        <v>6.451524648591264</v>
+        <v>6.553827851651181</v>
       </c>
       <c r="K23">
-        <v>8.699238273236679</v>
+        <v>8.767351858967739</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.796566965549163</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>4.245624830495564</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.37790583125318</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9.658250395993097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.37518028974615</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>9.320600588120003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.504550990594</v>
+        <v>24.47063635542477</v>
       </c>
       <c r="C24">
-        <v>18.02724359650829</v>
+        <v>18.09090889612182</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.85614627378968</v>
+        <v>15.75703209480099</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>13.65020272107675</v>
+        <v>13.23632783611811</v>
       </c>
       <c r="H24">
-        <v>2.780781954185244</v>
+        <v>2.746488581964954</v>
       </c>
       <c r="I24">
-        <v>3.584262770124481</v>
+        <v>3.535403026847902</v>
       </c>
       <c r="J24">
-        <v>6.577350900943399</v>
+        <v>7.243088446610092</v>
       </c>
       <c r="K24">
-        <v>9.193756661527132</v>
+        <v>9.266766744488484</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.01906020192772</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>4.660318447527781</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.83230397145329</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9.745866255594802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.84379198447936</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>9.734582063700243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.33382860898483</v>
+        <v>22.31853079556497</v>
       </c>
       <c r="C25">
-        <v>16.65934962306717</v>
+        <v>16.61638096587653</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.83953613661083</v>
+        <v>14.7725068585692</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>13.28117194313712</v>
+        <v>12.70355253023554</v>
       </c>
       <c r="H25">
-        <v>2.433706001110314</v>
+        <v>2.411420363398514</v>
       </c>
       <c r="I25">
-        <v>3.344814128217215</v>
+        <v>3.32386349065853</v>
       </c>
       <c r="J25">
-        <v>6.729784205653205</v>
+        <v>7.42141182955667</v>
       </c>
       <c r="K25">
-        <v>9.742037980308227</v>
+        <v>9.77909795901957</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.298563661014846</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.107361470501745</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.02971108024613</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9.887053027226074</v>
+        <v>19.03460794778</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>9.928508714840161</v>
       </c>
     </row>
   </sheetData>
